--- a/manual.xlsx
+++ b/manual.xlsx
@@ -5,32 +5,34 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_tu\Desktop\private\v2.3.0\web-asp-net-core-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_tu\Desktop\private\v3\web-asp-net-core-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E315C-9C34-4551-AE48-05170E93CFC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A8C2C3-C75A-4F0F-BB21-02B6DDBC350F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27975" windowHeight="12225" activeTab="2" xr2:uid="{AA694F4D-A3B4-4428-A153-DAA405A07C64}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27975" windowHeight="12225" activeTab="7" xr2:uid="{AA694F4D-A3B4-4428-A153-DAA405A07C64}"/>
   </bookViews>
   <sheets>
     <sheet name="architecture" sheetId="1" r:id="rId1"/>
     <sheet name="domain" sheetId="8" r:id="rId2"/>
     <sheet name="data" sheetId="7" r:id="rId3"/>
-    <sheet name="infa" sheetId="6" r:id="rId4"/>
-    <sheet name="controller" sheetId="2" r:id="rId5"/>
-    <sheet name="async&amp;sync" sheetId="3" r:id="rId6"/>
-    <sheet name="authentication" sheetId="4" r:id="rId7"/>
-    <sheet name="manual" sheetId="5" r:id="rId8"/>
+    <sheet name="service" sheetId="9" r:id="rId4"/>
+    <sheet name="infrastructure" sheetId="6" r:id="rId5"/>
+    <sheet name="controller" sheetId="2" r:id="rId6"/>
+    <sheet name="async&amp;sync" sheetId="3" r:id="rId7"/>
+    <sheet name="authentication" sheetId="4" r:id="rId8"/>
+    <sheet name="manual" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">architecture!$A$1:$CQ$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'async&amp;sync'!$A$1:$CQ$387</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">authentication!$A$1:$CQ$387</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">controller!$A$1:$CQ$386</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">data!$A$1:$CQ$94</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">domain!$A$1:$CQ$91</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">infa!$A$1:$CQ$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">manual!$A$1:$CQ$338</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">architecture!$A$1:$CQ$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'async&amp;sync'!$A$1:$CQ$387</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">authentication!$A$1:$CQ$387</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">controller!$A$1:$CQ$391</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">data!$A$1:$CQ$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">domain!$A$1:$CQ$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">infrastructure!$A$1:$CQ$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">manual!$A$1:$CQ$338</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">service!$A$1:$CQ$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
   <si>
     <t>Map entity -&gt; translate queries from linq -&gt; track changes -&gt; execute</t>
   </si>
@@ -50,18 +52,6 @@
     <t>Create connection -&gt; write query as string/stored procedure -&gt; execute</t>
   </si>
   <si>
-    <t>- Migration (không tạo trong project)</t>
-  </si>
-  <si>
-    <t>- DbContext: sử dụng DbContext để kết nối dữ liệu với Database</t>
-  </si>
-  <si>
-    <t>- Entities: domain model là các Entity class dùng để ánh xạ một table trong database</t>
-  </si>
-  <si>
-    <t>- AutoMapper: trung gian chuyển đổi qua lại giữa Entities và DTO</t>
-  </si>
-  <si>
     <t>(thư viện cùng tên)</t>
   </si>
   <si>
@@ -71,12 +61,6 @@
     <t>2- PERSISTENCE (tầng thao tác với cơ sở dữ liệu)</t>
   </si>
   <si>
-    <t>- DTO: là một object kết hợp nhiều tham số thành một đặt trong một lớp DTO</t>
-  </si>
-  <si>
-    <t>- Repositories: là một lớp trung gian giữa Domain và Persistent Layer,</t>
-  </si>
-  <si>
     <t>sẽ cung cấp một abstraction để truy cập vào data trong database, file, hoặc các service khác</t>
   </si>
   <si>
@@ -401,181 +385,284 @@
     <t>tạo ra một Task mới để xử lý bất đồng bộ mà bên trong code không có chỗ nào bất đồng bộ</t>
   </si>
   <si>
-    <t>Define the end points / routes for the web api, controllers are the entry point into the web api from client applications via http requests.</t>
-  </si>
-  <si>
-    <t>Controllers</t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Contain business logic and validation code, services are the interface between controllers and repositories for performing actions or retrieving data.</t>
-  </si>
-  <si>
-    <t>Repositories</t>
-  </si>
-  <si>
-    <t>Contain database access code and SQL queries.</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Represent the application data that is stored in the database.</t>
-  </si>
-  <si>
-    <t>Dapper maps relational data from the database to instances of C# entity objects to be used within the application for data management and CRUD operations.</t>
-  </si>
-  <si>
-    <t>Helpers</t>
-  </si>
-  <si>
-    <t>Anything that doesn't fit into the above folders.</t>
-  </si>
-  <si>
-    <t>Click any of the below links to jump down to a description of each file along with its code:</t>
-  </si>
-  <si>
-    <t>UsersController.cs</t>
-  </si>
-  <si>
-    <t>Role.cs</t>
-  </si>
-  <si>
-    <t>User.cs</t>
-  </si>
-  <si>
-    <t>AppException.cs</t>
-  </si>
-  <si>
-    <t>AutoMapperProfile.cs</t>
-  </si>
-  <si>
-    <t>DataContext.cs</t>
-  </si>
-  <si>
-    <t>DbSettings.cs</t>
-  </si>
-  <si>
-    <t>ErrorHandlerMiddleware.cs</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>CreateRequest.cs</t>
-  </si>
-  <si>
-    <t>UpdateRequest.cs</t>
-  </si>
-  <si>
-    <t>UserRepository.cs</t>
-  </si>
-  <si>
-    <t>UserService.cs</t>
-  </si>
-  <si>
-    <t>appsettings.json</t>
-  </si>
-  <si>
-    <t>Program.cs</t>
-  </si>
-  <si>
-    <t>WebApi.csproj</t>
+    <t>https://code-maze.com/dapper-migrations-fluentmigrator-aspnetcore/</t>
+  </si>
+  <si>
+    <t>Dapper ánh xạ dữ liệu quan hệ từ cơ sở dữ liệu tới instances của đối tượng entity sẽ sử dụng trong ứng dụng để quản lý dữ liệu và CRUD.</t>
+  </si>
+  <si>
+    <t>Represent request and response models for controller methods,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> request models define parameters for incoming requests and response models define custom data returned in responses when required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The example only contains request models because it doesn't contain any routes that require custom response models,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> entities are returned directly by the user GET routes.</t>
   </si>
   <si>
     <r>
-      <t>Represent request and response models for controller methods, request models define parameters for incoming requests and response models define custom data returned in responses when required. The example only contains </t>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>request</t>
+      <t>Entities</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t> models because it doesn't contain any routes that require custom response models, entities are returned directly by the user </t>
+      <t>: là các Entity class dùng để ánh xạ một table trong database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>GET</t>
+      <t>ModelView</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t> routes.</t>
+      <t>: là một object kết hợp nhiều tham số thành một đặt trong một lớp</t>
     </r>
   </si>
   <si>
-    <t>Npgsql</t>
-  </si>
-  <si>
-    <t>Install nutget packages</t>
-  </si>
-  <si>
-    <t>PostgreSQL Database</t>
-  </si>
-  <si>
-    <t>PostgreSQL (also known as Postgres) is the database used by the ASP.NET Core API, a free and open-source full featured relational database, it's a good option for any size application in production or development. The ADO.NET provider for Postgres (Npgsql) is used to connect to the database.</t>
-  </si>
-  <si>
-    <t>Microsoft.Extensions.Options</t>
-  </si>
-  <si>
-    <t>Dapper</t>
-  </si>
-  <si>
-    <t>Add project reference</t>
-  </si>
-  <si>
-    <t>Microsoft.Extensions.DependencyInjection.Abstractions</t>
-  </si>
-  <si>
-    <t>Microsoft.Extensions.Hosting.Abstractions</t>
-  </si>
-  <si>
-    <t>WebApiRestful.Domain</t>
-  </si>
-  <si>
-    <t>WebApiRestful.Data</t>
-  </si>
-  <si>
-    <t>Dapper Migrations with FluentMigrator and ASP.NET Core</t>
-  </si>
-  <si>
-    <t>https://code-maze.com/dapper-migrations-fluentmigrator-aspnetcore/</t>
-  </si>
-  <si>
-    <t>FluentMigrator</t>
-  </si>
-  <si>
-    <t>FluentMigrator.Runner.Postgres</t>
+    <t>Dapper maps relational data from the database to instances of C# entity objects to be used within the application for data management</t>
+  </si>
+  <si>
+    <t>and CRUD operations.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Repositories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: là một lớp trung gian giữa Domain và Persistent Layer,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Migration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (không tạo trong project)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DbContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: sử dụng DbContext để kết nối dữ liệu với Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AutoMapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: trung gian chuyển đổi qua lại giữa Entities và DTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ServiceConfiguration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>1- Install nutget packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>2- Add project reference</t>
+  </si>
+  <si>
+    <t>- Microsoft.Extensions.Options</t>
+  </si>
+  <si>
+    <t>- Dapper</t>
+  </si>
+  <si>
+    <t>- FluentMigrator</t>
+  </si>
+  <si>
+    <t>- FluentMigrator.Runner.Postgres</t>
+  </si>
+  <si>
+    <t>- WebApiRestful.Domain</t>
+  </si>
+  <si>
+    <t>3- Explanation</t>
+  </si>
+  <si>
+    <t>- PostgreSQL Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL (also known as Postgres) is the database used by the ASP.NET Core API, a free and open-source full featured relational database, it's a good option for any size application in production or development. </t>
+  </si>
+  <si>
+    <t>The ADO.NET provider for Postgres (Npgsql) is used to connect to the database.</t>
+  </si>
+  <si>
+    <t>- Dapper Migrations with FluentMigrator and ASP.NET Core</t>
+  </si>
+  <si>
+    <t>- Npgsql</t>
+  </si>
+  <si>
+    <t>- UnitOfWork</t>
+  </si>
+  <si>
+    <t>- Microsoft.Extensions.DependencyInjection.Abstractions</t>
+  </si>
+  <si>
+    <t>- Microsoft.Extensions.Hosting.Abstractions</t>
+  </si>
+  <si>
+    <t>- WebApiRestful.Data</t>
+  </si>
+  <si>
+    <t>- AutoMapper</t>
+  </si>
+  <si>
+    <t>- AutoMapper.Extensions.Microsoft.DependencyInjection</t>
+  </si>
+  <si>
+    <t>- WebApiRestful.Service</t>
+  </si>
+  <si>
+    <t>- WebApiRestful.Infrastructure</t>
+  </si>
+  <si>
+    <t>Chứng thực bằng token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo mật từ bên ngoài không phải ai cũng có thể vào hệ thống, cần phải login vào </t>
+  </si>
+  <si>
+    <t>trước đây bảo mật bằng cookie và session  do webapi là stateless không thể lưu giữ thông tin người dùng trên server được</t>
+  </si>
+  <si>
+    <t>jwt.ms: Welcome!</t>
+  </si>
+  <si>
+    <t>JSON Web Tokens - jwt.io</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,21 +720,17 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -677,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -692,7 +775,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -700,6 +783,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1507,21 +1592,21 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>151134</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>19516</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
+        <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2868700-6F8E-44F6-B4C0-06769D4A0EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C5E767-4E26-4A27-96D2-FE8C4E183A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1622,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8505825" y="2657475"/>
+          <a:off x="8505825" y="6858000"/>
           <a:ext cx="5037459" cy="1819741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1600,6 +1685,854 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>70606</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Group 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A9B21D-1218-48C7-9079-9CFB61269323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="457200" y="1400175"/>
+          <a:ext cx="9309856" cy="4953001"/>
+          <a:chOff x="409575" y="3990975"/>
+          <a:chExt cx="9309856" cy="4953001"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B193A8CB-0624-453D-8AEC-09BE954D732B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="523875" y="5438775"/>
+            <a:ext cx="1943298" cy="1505175"/>
+            <a:chOff x="581025" y="4314825"/>
+            <a:chExt cx="1943298" cy="1505175"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="図 33" descr="防爆&lt;strong&gt;スマートフォン&lt;/strong&gt;｜システムギア">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A85875-C290-4C40-AEF6-63C24BE35949}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="18471" r="18471"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="742950" y="4448175"/>
+              <a:ext cx="417947" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3" descr="ノートパソコンの画面&#10;&#10;自動的に生成された説明">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00751E33-D56A-42DE-9779-E006D7270072}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                  <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId3"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1352550" y="4314825"/>
+              <a:ext cx="979237" cy="971549"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0209F222-4085-4E73-8154-03BE9F37AD13}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="581025" y="5314950"/>
+              <a:ext cx="1943298" cy="505050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>Browser</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="Group 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D63779B-1975-4E73-9C74-A2643BE1FBC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2647950" y="4505325"/>
+            <a:ext cx="4029075" cy="733425"/>
+            <a:chOff x="4505325" y="5048250"/>
+            <a:chExt cx="4981575" cy="733425"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0662DA-5DDE-48AD-A806-4B0CFC2A8AE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4505325" y="5048250"/>
+              <a:ext cx="4676776" cy="295275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>send username/password</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Arrow: Right 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77ED4D5-9EC0-453B-9A29-86D01E9893C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4505325" y="5191125"/>
+              <a:ext cx="4981575" cy="590550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>HTTP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="Group 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDE14B5-22F0-4D6F-A2C0-F2BEFA57C76B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7600951" y="6505576"/>
+            <a:ext cx="2118480" cy="2438400"/>
+            <a:chOff x="5837466" y="13022035"/>
+            <a:chExt cx="2610566" cy="2667001"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Picture 14" descr="Api - Free seo and web icons">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96852D0E-0E78-47EC-8877-857B4661AAD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5837466" y="13090072"/>
+              <a:ext cx="2610566" cy="2598964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79BD8CF-4DC3-4684-A576-B30BD1387608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6109606" y="13022035"/>
+              <a:ext cx="1959429" cy="449035"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" baseline="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>WEBAPI</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Flowchart: Process 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF76380F-08C7-4726-9E6F-AD202B58A440}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7753350" y="4352926"/>
+            <a:ext cx="1809750" cy="1800224"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Authentication</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="Group 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BE1EDE-52B1-4766-9859-2FCC7FF62FB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2638426" y="5505450"/>
+            <a:ext cx="4038600" cy="742950"/>
+            <a:chOff x="2505076" y="6400800"/>
+            <a:chExt cx="4038600" cy="742950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24E5522-7013-472D-8AC0-142C53ACC90B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2819401" y="6400800"/>
+              <a:ext cx="3724274" cy="295275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>token</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Arrow: Left 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5794DC9E-33FE-423E-BB55-D009599F02E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2505076" y="6543676"/>
+              <a:ext cx="4038600" cy="600074"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>HTTP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="Group 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AE2CE9-8DAE-4535-8940-9157579045CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2695575" y="7124700"/>
+            <a:ext cx="4029075" cy="733425"/>
+            <a:chOff x="4505325" y="5048250"/>
+            <a:chExt cx="4981575" cy="733425"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71198F6F-B517-4830-A543-8277A84FB82E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4505325" y="5048250"/>
+              <a:ext cx="4676776" cy="295275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>send request</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Arrow: Right 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE3002A-49B3-4CCA-BADB-C86ED635F2F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4505325" y="5191125"/>
+              <a:ext cx="4981575" cy="590550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>HTTP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="TextBox 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA821979-7214-4E8A-B310-02138623D91C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="409575" y="3990975"/>
+            <a:ext cx="3724274" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>JWT ~ Json Web</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Token</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3362,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2732BD3-EFCD-4481-BAE7-F5FF30F2F4EC}">
-  <dimension ref="C2:CE83"/>
+  <dimension ref="C2:CE51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BI82" sqref="BI82"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3:AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3375,127 +4308,150 @@
   <sheetData>
     <row r="2" spans="3:83" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:83" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CA3" s="6"/>
       <c r="CE3" s="6"/>
     </row>
     <row r="4" spans="3:83" x14ac:dyDescent="0.25">
       <c r="AU4" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AV5" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AU7" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AV8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AV9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AV10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AV11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AT13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:83" x14ac:dyDescent="0.25">
-      <c r="AU6" s="4" t="s">
+    <row r="14" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AU14" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="3:83" x14ac:dyDescent="0.25">
+      <c r="AV15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AV17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AW18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX18" s="2"/>
+      <c r="BF18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AW19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AW20" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AW21" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AU23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AU25" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AT27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AU28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AT30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="46:58" x14ac:dyDescent="0.25">
+      <c r="AU31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AU33" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AV34" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:83" x14ac:dyDescent="0.25">
-      <c r="AU8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:83" x14ac:dyDescent="0.25">
-      <c r="AU10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:83" x14ac:dyDescent="0.25">
-      <c r="AU12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:83" x14ac:dyDescent="0.25">
-      <c r="AV13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AU26" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AV27" s="1" t="s">
+    <row r="46" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AU46" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT48" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AV29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX30" s="2"/>
-      <c r="BD30" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AU35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT38" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AU39" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT43" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AU44" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AV45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU48" s="8"/>
-      <c r="AV48" s="11"/>
       <c r="AW48" s="8"/>
       <c r="AX48" s="8"/>
       <c r="AY48" s="8"/>
@@ -3509,11 +4465,9 @@
       <c r="BG48" s="8"/>
     </row>
     <row r="49" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT49" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU49" s="8"/>
-      <c r="AV49" s="12"/>
+      <c r="AU49" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AW49" s="8"/>
       <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
@@ -3527,9 +4481,490 @@
       <c r="BG49" s="8"/>
     </row>
     <row r="50" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT50" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="AV50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="8"/>
+      <c r="AY50" s="8"/>
+      <c r="AZ50" s="8"/>
+      <c r="BA50" s="8"/>
+      <c r="BB50" s="8"/>
+      <c r="BC50" s="8"/>
+      <c r="BD50" s="8"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="8"/>
+      <c r="BG50" s="8"/>
+    </row>
+    <row r="51" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="8"/>
+      <c r="AW51" s="8"/>
+      <c r="AX51" s="8"/>
+      <c r="AY51" s="8"/>
+      <c r="AZ51" s="8"/>
+      <c r="BA51" s="8"/>
+      <c r="BB51" s="8"/>
+      <c r="BC51" s="8"/>
+      <c r="BD51" s="8"/>
+      <c r="BE51" s="8"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF409BC-7BBD-47CF-93FF-82B260EC5723}">
+  <dimension ref="B2:CE15"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="CA3" s="6"/>
+      <c r="CE3" s="6"/>
+    </row>
+    <row r="4" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT8" s="2"/>
+      <c r="CA8" s="6"/>
+      <c r="CE8" s="6"/>
+    </row>
+    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU9" s="4"/>
+    </row>
+    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="AU11" s="4"/>
+    </row>
+    <row r="13" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="AU13" s="4"/>
+    </row>
+    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="AU15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB436E13-AA50-4020-8D2C-F45AAF8B9988}">
+  <dimension ref="B2:CE31"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:83" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="2:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:83" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C14" s="14"/>
+      <c r="D14" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT15" s="2"/>
+      <c r="CA15" s="6"/>
+      <c r="CE15" s="6"/>
+    </row>
+    <row r="16" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="AU16" s="4"/>
+    </row>
+    <row r="17" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="D18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU18" s="4"/>
+    </row>
+    <row r="20" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU20" s="4"/>
+    </row>
+    <row r="22" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AU22" s="4"/>
+    </row>
+    <row r="25" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+    </row>
+    <row r="26" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+    </row>
+    <row r="27" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+    </row>
+    <row r="28" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+    </row>
+    <row r="29" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+    </row>
+    <row r="30" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+    </row>
+    <row r="31" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{B361AE65-2D35-4EA1-B7C6-1E1354BC71B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="12" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41850616-8517-4FFA-AAEC-21AB7FF6C755}">
+  <dimension ref="B2:CE82"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="CA3" s="6"/>
+      <c r="CE3" s="6"/>
+    </row>
+    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT4" s="2"/>
+      <c r="CA4" s="6"/>
+      <c r="CE4" s="6"/>
+    </row>
+    <row r="5" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT9" s="2"/>
+      <c r="CA9" s="6"/>
+      <c r="CE9" s="6"/>
+    </row>
+    <row r="10" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU10" s="4"/>
+    </row>
+    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="AU11" s="4"/>
+    </row>
+    <row r="24" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AT24" s="2"/>
+    </row>
+    <row r="25" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AU25" s="4"/>
+    </row>
+    <row r="29" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="2"/>
+      <c r="BD29" s="2"/>
+    </row>
+    <row r="30" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AW30" s="4"/>
+    </row>
+    <row r="33" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT33" s="2"/>
+    </row>
+    <row r="37" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT37" s="2"/>
+    </row>
+    <row r="42" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT42" s="2"/>
+    </row>
+    <row r="43" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AU43" s="4"/>
+    </row>
+    <row r="47" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="8"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="8"/>
+      <c r="AX47" s="8"/>
+      <c r="AY47" s="8"/>
+      <c r="AZ47" s="8"/>
+      <c r="BA47" s="8"/>
+      <c r="BB47" s="8"/>
+      <c r="BC47" s="8"/>
+      <c r="BD47" s="8"/>
+      <c r="BE47" s="8"/>
+      <c r="BF47" s="8"/>
+      <c r="BG47" s="8"/>
+    </row>
+    <row r="48" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="8"/>
+      <c r="AX48" s="8"/>
+      <c r="AY48" s="8"/>
+      <c r="AZ48" s="8"/>
+      <c r="BA48" s="8"/>
+      <c r="BB48" s="8"/>
+      <c r="BC48" s="8"/>
+      <c r="BD48" s="8"/>
+      <c r="BE48" s="8"/>
+      <c r="BF48" s="8"/>
+      <c r="BG48" s="8"/>
+    </row>
+    <row r="49" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="8"/>
+      <c r="AV49" s="8"/>
+      <c r="AW49" s="8"/>
+      <c r="AX49" s="8"/>
+      <c r="AY49" s="8"/>
+      <c r="AZ49" s="8"/>
+      <c r="BA49" s="8"/>
+      <c r="BB49" s="8"/>
+      <c r="BC49" s="8"/>
+      <c r="BD49" s="8"/>
+      <c r="BE49" s="8"/>
+      <c r="BF49" s="8"/>
+      <c r="BG49" s="8"/>
+    </row>
+    <row r="50" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT50" s="7"/>
       <c r="AU50" s="8"/>
       <c r="AV50" s="8"/>
       <c r="AW50" s="8"/>
@@ -3545,9 +4980,7 @@
       <c r="BG50" s="8"/>
     </row>
     <row r="51" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT51" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="AT51" s="7"/>
       <c r="AU51" s="8"/>
       <c r="AV51" s="8"/>
       <c r="AW51" s="8"/>
@@ -3563,9 +4996,7 @@
       <c r="BG51" s="8"/>
     </row>
     <row r="52" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT52" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="AT52" s="7"/>
       <c r="AU52" s="8"/>
       <c r="AV52" s="8"/>
       <c r="AW52" s="8"/>
@@ -3581,9 +5012,7 @@
       <c r="BG52" s="8"/>
     </row>
     <row r="53" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT53" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="AT53" s="7"/>
       <c r="AU53" s="8"/>
       <c r="AV53" s="8"/>
       <c r="AW53" s="8"/>
@@ -3599,672 +5028,9 @@
       <c r="BG53" s="8"/>
     </row>
     <row r="54" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT54" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="AT54" s="7"/>
       <c r="AU54" s="8"/>
       <c r="AV54" s="8"/>
-      <c r="AW54" s="8"/>
-      <c r="AX54" s="8"/>
-      <c r="AY54" s="8"/>
-      <c r="AZ54" s="8"/>
-      <c r="BA54" s="8"/>
-      <c r="BB54" s="8"/>
-      <c r="BC54" s="8"/>
-      <c r="BD54" s="8"/>
-      <c r="BE54" s="8"/>
-      <c r="BF54" s="8"/>
-      <c r="BG54" s="8"/>
-    </row>
-    <row r="55" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT55" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU55" s="8"/>
-      <c r="AV55" s="8"/>
-      <c r="AW55" s="8"/>
-      <c r="AX55" s="8"/>
-      <c r="AY55" s="8"/>
-      <c r="AZ55" s="8"/>
-      <c r="BA55" s="8"/>
-      <c r="BB55" s="8"/>
-      <c r="BC55" s="8"/>
-      <c r="BD55" s="8"/>
-      <c r="BE55" s="8"/>
-      <c r="BF55" s="8"/>
-      <c r="BG55" s="8"/>
-    </row>
-    <row r="56" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU56" s="8"/>
-      <c r="AV56" s="8"/>
-      <c r="AW56" s="8"/>
-      <c r="AX56" s="8"/>
-      <c r="AY56" s="8"/>
-      <c r="AZ56" s="8"/>
-      <c r="BA56" s="8"/>
-      <c r="BB56" s="8"/>
-      <c r="BC56" s="8"/>
-      <c r="BD56" s="8"/>
-      <c r="BE56" s="8"/>
-      <c r="BF56" s="8"/>
-      <c r="BG56" s="8"/>
-    </row>
-    <row r="57" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT57" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU57" s="8"/>
-      <c r="AV57" s="8"/>
-      <c r="AW57" s="8"/>
-      <c r="AX57" s="8"/>
-      <c r="AY57" s="8"/>
-      <c r="AZ57" s="8"/>
-      <c r="BA57" s="8"/>
-      <c r="BB57" s="8"/>
-      <c r="BC57" s="8"/>
-      <c r="BD57" s="8"/>
-      <c r="BE57" s="8"/>
-      <c r="BF57" s="8"/>
-      <c r="BG57" s="8"/>
-    </row>
-    <row r="58" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT58" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU58" s="8"/>
-      <c r="AV58" s="8"/>
-      <c r="AW58" s="8"/>
-      <c r="AX58" s="8"/>
-      <c r="AY58" s="8"/>
-      <c r="AZ58" s="8"/>
-      <c r="BA58" s="8"/>
-      <c r="BB58" s="8"/>
-      <c r="BC58" s="8"/>
-      <c r="BD58" s="8"/>
-      <c r="BE58" s="8"/>
-      <c r="BF58" s="8"/>
-      <c r="BG58" s="8"/>
-    </row>
-    <row r="59" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT59" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU59" s="8"/>
-      <c r="AV59" s="8"/>
-      <c r="AW59" s="8"/>
-      <c r="AX59" s="8"/>
-      <c r="AY59" s="8"/>
-      <c r="AZ59" s="8"/>
-      <c r="BA59" s="8"/>
-      <c r="BB59" s="8"/>
-      <c r="BC59" s="8"/>
-      <c r="BD59" s="8"/>
-      <c r="BE59" s="8"/>
-      <c r="BF59" s="8"/>
-      <c r="BG59" s="8"/>
-    </row>
-    <row r="60" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT60" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU60" s="8"/>
-      <c r="AV60" s="8"/>
-      <c r="AW60" s="8"/>
-      <c r="AX60" s="8"/>
-      <c r="AY60" s="8"/>
-      <c r="AZ60" s="8"/>
-      <c r="BA60" s="8"/>
-      <c r="BB60" s="8"/>
-      <c r="BC60" s="8"/>
-      <c r="BD60" s="8"/>
-      <c r="BE60" s="8"/>
-      <c r="BF60" s="8"/>
-      <c r="BG60" s="8"/>
-    </row>
-    <row r="61" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT61" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU61" s="8"/>
-      <c r="AV61" s="8"/>
-      <c r="AW61" s="8"/>
-      <c r="AX61" s="8"/>
-      <c r="AY61" s="8"/>
-      <c r="AZ61" s="8"/>
-      <c r="BA61" s="8"/>
-      <c r="BB61" s="8"/>
-      <c r="BC61" s="8"/>
-      <c r="BD61" s="8"/>
-      <c r="BE61" s="8"/>
-      <c r="BF61" s="8"/>
-      <c r="BG61" s="8"/>
-    </row>
-    <row r="62" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT62" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU62" s="8"/>
-      <c r="AV62" s="8"/>
-      <c r="AW62" s="8"/>
-      <c r="AX62" s="8"/>
-      <c r="AY62" s="8"/>
-      <c r="AZ62" s="8"/>
-      <c r="BA62" s="8"/>
-      <c r="BB62" s="8"/>
-      <c r="BC62" s="8"/>
-      <c r="BD62" s="8"/>
-      <c r="BE62" s="8"/>
-      <c r="BF62" s="8"/>
-      <c r="BG62" s="8"/>
-    </row>
-    <row r="63" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT63" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU63" s="8"/>
-      <c r="AV63" s="8"/>
-      <c r="AW63" s="8"/>
-      <c r="AX63" s="8"/>
-      <c r="AY63" s="8"/>
-      <c r="AZ63" s="8"/>
-      <c r="BA63" s="8"/>
-      <c r="BB63" s="8"/>
-      <c r="BC63" s="8"/>
-      <c r="BD63" s="8"/>
-      <c r="BE63" s="8"/>
-      <c r="BF63" s="8"/>
-      <c r="BG63" s="8"/>
-    </row>
-    <row r="64" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT64" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU64" s="8"/>
-      <c r="AV64" s="8"/>
-      <c r="AW64" s="8"/>
-      <c r="AX64" s="8"/>
-      <c r="AY64" s="8"/>
-      <c r="AZ64" s="8"/>
-      <c r="BA64" s="8"/>
-      <c r="BB64" s="8"/>
-      <c r="BC64" s="8"/>
-      <c r="BD64" s="8"/>
-      <c r="BE64" s="8"/>
-      <c r="BF64" s="8"/>
-      <c r="BG64" s="8"/>
-    </row>
-    <row r="65" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT65" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU65" s="8"/>
-      <c r="AV65" s="8"/>
-      <c r="AW65" s="8"/>
-      <c r="AX65" s="8"/>
-      <c r="AY65" s="8"/>
-      <c r="AZ65" s="8"/>
-      <c r="BA65" s="8"/>
-      <c r="BB65" s="8"/>
-      <c r="BC65" s="8"/>
-      <c r="BD65" s="8"/>
-      <c r="BE65" s="8"/>
-      <c r="BF65" s="8"/>
-      <c r="BG65" s="8"/>
-    </row>
-    <row r="66" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT66" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU66" s="8"/>
-      <c r="AV66" s="8"/>
-      <c r="AW66" s="8"/>
-      <c r="AX66" s="8"/>
-      <c r="AY66" s="8"/>
-      <c r="AZ66" s="8"/>
-      <c r="BA66" s="8"/>
-      <c r="BB66" s="8"/>
-      <c r="BC66" s="8"/>
-      <c r="BD66" s="8"/>
-      <c r="BE66" s="8"/>
-      <c r="BF66" s="8"/>
-      <c r="BG66" s="8"/>
-    </row>
-    <row r="67" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT67" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU67" s="8"/>
-      <c r="AV67" s="8"/>
-      <c r="AW67" s="8"/>
-      <c r="AX67" s="8"/>
-      <c r="AY67" s="8"/>
-      <c r="AZ67" s="8"/>
-      <c r="BA67" s="8"/>
-      <c r="BB67" s="8"/>
-      <c r="BC67" s="8"/>
-      <c r="BD67" s="8"/>
-      <c r="BE67" s="8"/>
-      <c r="BF67" s="8"/>
-      <c r="BG67" s="8"/>
-    </row>
-    <row r="68" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT68" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU68" s="8"/>
-      <c r="AV68" s="8"/>
-      <c r="AW68" s="8"/>
-      <c r="AX68" s="8"/>
-      <c r="AY68" s="8"/>
-      <c r="AZ68" s="8"/>
-      <c r="BA68" s="8"/>
-      <c r="BB68" s="8"/>
-      <c r="BC68" s="8"/>
-      <c r="BD68" s="8"/>
-      <c r="BE68" s="8"/>
-      <c r="BF68" s="8"/>
-      <c r="BG68" s="8"/>
-    </row>
-    <row r="69" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT69" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU69" s="8"/>
-      <c r="AV69" s="8"/>
-      <c r="AW69" s="8"/>
-      <c r="AX69" s="8"/>
-      <c r="AY69" s="8"/>
-      <c r="AZ69" s="8"/>
-      <c r="BA69" s="8"/>
-      <c r="BB69" s="8"/>
-      <c r="BC69" s="8"/>
-      <c r="BD69" s="8"/>
-      <c r="BE69" s="8"/>
-      <c r="BF69" s="8"/>
-      <c r="BG69" s="8"/>
-    </row>
-    <row r="70" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT70" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU70" s="8"/>
-      <c r="AV70" s="8"/>
-      <c r="AW70" s="8"/>
-      <c r="AX70" s="8"/>
-      <c r="AY70" s="8"/>
-      <c r="AZ70" s="8"/>
-      <c r="BA70" s="8"/>
-      <c r="BB70" s="8"/>
-      <c r="BC70" s="8"/>
-      <c r="BD70" s="8"/>
-      <c r="BE70" s="8"/>
-      <c r="BF70" s="8"/>
-      <c r="BG70" s="8"/>
-    </row>
-    <row r="71" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT71" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU71" s="8"/>
-      <c r="AV71" s="8"/>
-      <c r="AW71" s="8"/>
-      <c r="AX71" s="8"/>
-      <c r="AY71" s="8"/>
-      <c r="AZ71" s="8"/>
-      <c r="BA71" s="8"/>
-      <c r="BB71" s="8"/>
-      <c r="BC71" s="8"/>
-      <c r="BD71" s="8"/>
-      <c r="BE71" s="8"/>
-      <c r="BF71" s="8"/>
-      <c r="BG71" s="8"/>
-    </row>
-    <row r="72" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT72" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU72" s="8"/>
-      <c r="AV72" s="8"/>
-      <c r="AW72" s="8"/>
-      <c r="AX72" s="8"/>
-      <c r="AY72" s="8"/>
-      <c r="AZ72" s="8"/>
-      <c r="BA72" s="8"/>
-      <c r="BB72" s="8"/>
-      <c r="BC72" s="8"/>
-      <c r="BD72" s="8"/>
-      <c r="BE72" s="8"/>
-      <c r="BF72" s="8"/>
-      <c r="BG72" s="8"/>
-    </row>
-    <row r="73" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT73" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU73" s="8"/>
-      <c r="AV73" s="8"/>
-      <c r="AW73" s="8"/>
-      <c r="AX73" s="8"/>
-      <c r="AY73" s="8"/>
-      <c r="AZ73" s="8"/>
-      <c r="BA73" s="8"/>
-      <c r="BB73" s="8"/>
-      <c r="BC73" s="8"/>
-      <c r="BD73" s="8"/>
-      <c r="BE73" s="8"/>
-      <c r="BF73" s="8"/>
-      <c r="BG73" s="8"/>
-    </row>
-    <row r="74" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT74" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU74" s="8"/>
-      <c r="AV74" s="8"/>
-      <c r="AW74" s="8"/>
-      <c r="AX74" s="8"/>
-      <c r="AY74" s="8"/>
-      <c r="AZ74" s="8"/>
-      <c r="BA74" s="8"/>
-      <c r="BB74" s="8"/>
-      <c r="BC74" s="8"/>
-      <c r="BD74" s="8"/>
-      <c r="BE74" s="8"/>
-      <c r="BF74" s="8"/>
-      <c r="BG74" s="8"/>
-    </row>
-    <row r="75" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT75" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU75" s="8"/>
-      <c r="AV75" s="8"/>
-      <c r="AW75" s="8"/>
-      <c r="AX75" s="8"/>
-      <c r="AY75" s="8"/>
-      <c r="AZ75" s="8"/>
-      <c r="BA75" s="8"/>
-      <c r="BB75" s="8"/>
-      <c r="BC75" s="8"/>
-      <c r="BD75" s="8"/>
-      <c r="BE75" s="8"/>
-      <c r="BF75" s="8"/>
-      <c r="BG75" s="8"/>
-    </row>
-    <row r="76" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT76" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU76" s="8"/>
-      <c r="AV76" s="8"/>
-      <c r="AW76" s="8"/>
-      <c r="AX76" s="8"/>
-      <c r="AY76" s="8"/>
-      <c r="AZ76" s="8"/>
-      <c r="BA76" s="8"/>
-      <c r="BB76" s="8"/>
-      <c r="BC76" s="8"/>
-      <c r="BD76" s="8"/>
-      <c r="BE76" s="8"/>
-      <c r="BF76" s="8"/>
-      <c r="BG76" s="8"/>
-    </row>
-    <row r="77" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT77" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU77" s="8"/>
-      <c r="AV77" s="8"/>
-      <c r="AW77" s="8"/>
-      <c r="AX77" s="8"/>
-      <c r="AY77" s="8"/>
-      <c r="AZ77" s="8"/>
-      <c r="BA77" s="8"/>
-      <c r="BB77" s="8"/>
-      <c r="BC77" s="8"/>
-      <c r="BD77" s="8"/>
-      <c r="BE77" s="8"/>
-      <c r="BF77" s="8"/>
-      <c r="BG77" s="8"/>
-    </row>
-    <row r="78" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT78" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU78" s="8"/>
-      <c r="AV78" s="8"/>
-      <c r="AW78" s="8"/>
-      <c r="AX78" s="8"/>
-      <c r="AY78" s="8"/>
-      <c r="AZ78" s="8"/>
-      <c r="BA78" s="8"/>
-      <c r="BB78" s="8"/>
-      <c r="BC78" s="8"/>
-      <c r="BD78" s="8"/>
-      <c r="BE78" s="8"/>
-      <c r="BF78" s="8"/>
-      <c r="BG78" s="8"/>
-    </row>
-    <row r="79" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT79" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU79" s="8"/>
-      <c r="AV79" s="8"/>
-      <c r="AW79" s="8"/>
-      <c r="AX79" s="8"/>
-      <c r="AY79" s="8"/>
-      <c r="AZ79" s="8"/>
-      <c r="BA79" s="8"/>
-      <c r="BB79" s="8"/>
-      <c r="BC79" s="8"/>
-      <c r="BD79" s="8"/>
-      <c r="BE79" s="8"/>
-      <c r="BF79" s="8"/>
-      <c r="BG79" s="8"/>
-    </row>
-    <row r="80" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT80" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU80" s="8"/>
-      <c r="AV80" s="8"/>
-      <c r="AW80" s="8"/>
-      <c r="AX80" s="8"/>
-      <c r="AY80" s="8"/>
-      <c r="AZ80" s="8"/>
-      <c r="BA80" s="8"/>
-      <c r="BB80" s="8"/>
-      <c r="BC80" s="8"/>
-      <c r="BD80" s="8"/>
-      <c r="BE80" s="8"/>
-      <c r="BF80" s="8"/>
-      <c r="BG80" s="8"/>
-    </row>
-    <row r="81" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT81" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU81" s="8"/>
-      <c r="AV81" s="8"/>
-      <c r="AW81" s="8"/>
-      <c r="AX81" s="8"/>
-      <c r="AY81" s="8"/>
-      <c r="AZ81" s="8"/>
-      <c r="BA81" s="8"/>
-      <c r="BB81" s="8"/>
-      <c r="BC81" s="8"/>
-      <c r="BD81" s="8"/>
-      <c r="BE81" s="8"/>
-      <c r="BF81" s="8"/>
-      <c r="BG81" s="8"/>
-    </row>
-    <row r="82" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT82" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU82" s="8"/>
-      <c r="AV82" s="8"/>
-      <c r="AW82" s="8"/>
-      <c r="AX82" s="8"/>
-      <c r="AY82" s="8"/>
-      <c r="AZ82" s="8"/>
-      <c r="BA82" s="8"/>
-      <c r="BB82" s="8"/>
-      <c r="BC82" s="8"/>
-      <c r="BD82" s="8"/>
-      <c r="BE82" s="8"/>
-      <c r="BF82" s="8"/>
-      <c r="BG82" s="8"/>
-    </row>
-    <row r="83" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT83" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU83" s="8"/>
-      <c r="AV83" s="8"/>
-      <c r="AW83" s="8"/>
-      <c r="AX83" s="8"/>
-      <c r="AY83" s="8"/>
-      <c r="AZ83" s="8"/>
-      <c r="BA83" s="8"/>
-      <c r="BB83" s="8"/>
-      <c r="BC83" s="8"/>
-      <c r="BD83" s="8"/>
-      <c r="BE83" s="8"/>
-      <c r="BF83" s="8"/>
-      <c r="BG83" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AT63" r:id="rId1" location="users-controller-cs" display="https://jasonwatmore.com/ - users-controller-cs" xr:uid="{0102C2C4-935D-401E-B00E-C333A40495FA}"/>
-    <hyperlink ref="AT65" r:id="rId2" location="role-cs" display="https://jasonwatmore.com/ - role-cs" xr:uid="{DDEECE25-7709-443C-8B1B-8DECECA2E306}"/>
-    <hyperlink ref="AT66" r:id="rId3" location="user-cs" display="https://jasonwatmore.com/ - user-cs" xr:uid="{721B7900-DE3D-45DD-915E-4F0858B4971C}"/>
-    <hyperlink ref="AT68" r:id="rId4" location="app-exception-cs" display="https://jasonwatmore.com/ - app-exception-cs" xr:uid="{C5AEB362-BE6F-4921-BC31-A10529CF44C0}"/>
-    <hyperlink ref="AT69" r:id="rId5" location="automapper-profile-cs" display="https://jasonwatmore.com/ - automapper-profile-cs" xr:uid="{37152272-C0DF-4A33-9065-89C99619B97A}"/>
-    <hyperlink ref="AT70" r:id="rId6" location="data-context-cs" display="https://jasonwatmore.com/ - data-context-cs" xr:uid="{B35585AE-08FF-412A-A7EA-7C5932C47C9F}"/>
-    <hyperlink ref="AT71" r:id="rId7" location="db-settings-cs" display="https://jasonwatmore.com/ - db-settings-cs" xr:uid="{2CDF5C1F-3A0B-4AA3-A0BE-37004B385174}"/>
-    <hyperlink ref="AT72" r:id="rId8" location="error-handler-middleware-cs" display="https://jasonwatmore.com/ - error-handler-middleware-cs" xr:uid="{6D69DD47-310C-44A8-93ED-8DED47EF98A2}"/>
-    <hyperlink ref="AT75" r:id="rId9" location="create-request-cs" display="https://jasonwatmore.com/ - create-request-cs" xr:uid="{E236DD5D-22E2-4DFC-B8F0-856582D6FE69}"/>
-    <hyperlink ref="AT76" r:id="rId10" location="update-request-cs" display="https://jasonwatmore.com/ - update-request-cs" xr:uid="{F7BBD55B-8B2A-4716-BCE7-B21516EACC68}"/>
-    <hyperlink ref="AT78" r:id="rId11" location="user-repository-cs" display="https://jasonwatmore.com/ - user-repository-cs" xr:uid="{EF5A96FB-759A-40F1-898B-BC0CB161280B}"/>
-    <hyperlink ref="AT80" r:id="rId12" location="user-service-cs" display="https://jasonwatmore.com/ - user-service-cs" xr:uid="{77D5585C-4211-4A47-957B-05ED08C1E1E8}"/>
-    <hyperlink ref="AT81" r:id="rId13" location="app-settings-json" display="https://jasonwatmore.com/ - app-settings-json" xr:uid="{CAA7AF36-DB80-481C-A6F1-D63E7C8C5550}"/>
-    <hyperlink ref="AT82" r:id="rId14" location="program-cs" display="https://jasonwatmore.com/ - program-cs" xr:uid="{F11E00C4-1EA5-40AE-988E-70A89634B44F}"/>
-    <hyperlink ref="AT83" r:id="rId15" location="web-api-csproj" display="https://jasonwatmore.com/ - web-api-csproj" xr:uid="{6916C76D-B8A8-4394-960F-FE2D219EA20D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="12" orientation="portrait" r:id="rId16"/>
-  <drawing r:id="rId17"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF409BC-7BBD-47CF-93FF-82B260EC5723}">
-  <dimension ref="B2:CE88"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:83" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AT8" s="2"/>
-      <c r="CA8" s="6"/>
-      <c r="CE8" s="6"/>
-    </row>
-    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU9" s="4"/>
-    </row>
-    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU11" s="4"/>
-    </row>
-    <row r="13" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU13" s="4"/>
-    </row>
-    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU15" s="4"/>
-    </row>
-    <row r="17" spans="46:47" x14ac:dyDescent="0.25">
-      <c r="AU17" s="4"/>
-    </row>
-    <row r="30" spans="46:47" x14ac:dyDescent="0.25">
-      <c r="AT30" s="2"/>
-    </row>
-    <row r="31" spans="46:47" x14ac:dyDescent="0.25">
-      <c r="AU31" s="4"/>
-    </row>
-    <row r="35" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="2"/>
-      <c r="BD35" s="2"/>
-    </row>
-    <row r="36" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW36" s="4"/>
-    </row>
-    <row r="39" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT39" s="2"/>
-    </row>
-    <row r="43" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT43" s="2"/>
-    </row>
-    <row r="48" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT48" s="2"/>
-    </row>
-    <row r="49" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AU49" s="4"/>
-    </row>
-    <row r="53" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT53" s="7"/>
-      <c r="AU53" s="8"/>
-      <c r="AV53" s="11"/>
-      <c r="AW53" s="8"/>
-      <c r="AX53" s="8"/>
-      <c r="AY53" s="8"/>
-      <c r="AZ53" s="8"/>
-      <c r="BA53" s="8"/>
-      <c r="BB53" s="8"/>
-      <c r="BC53" s="8"/>
-      <c r="BD53" s="8"/>
-      <c r="BE53" s="8"/>
-      <c r="BF53" s="8"/>
-      <c r="BG53" s="8"/>
-    </row>
-    <row r="54" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT54" s="7"/>
-      <c r="AU54" s="8"/>
-      <c r="AV54" s="12"/>
       <c r="AW54" s="8"/>
       <c r="AX54" s="8"/>
       <c r="AY54" s="8"/>
@@ -4374,6 +5140,669 @@
       <c r="BG60" s="8"/>
     </row>
     <row r="61" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="8"/>
+      <c r="AW61" s="8"/>
+      <c r="AX61" s="8"/>
+      <c r="AY61" s="8"/>
+      <c r="AZ61" s="8"/>
+      <c r="BA61" s="8"/>
+      <c r="BB61" s="8"/>
+      <c r="BC61" s="8"/>
+      <c r="BD61" s="8"/>
+      <c r="BE61" s="8"/>
+      <c r="BF61" s="8"/>
+      <c r="BG61" s="8"/>
+    </row>
+    <row r="62" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT62" s="10"/>
+      <c r="AU62" s="8"/>
+      <c r="AV62" s="8"/>
+      <c r="AW62" s="8"/>
+      <c r="AX62" s="8"/>
+      <c r="AY62" s="8"/>
+      <c r="AZ62" s="8"/>
+      <c r="BA62" s="8"/>
+      <c r="BB62" s="8"/>
+      <c r="BC62" s="8"/>
+      <c r="BD62" s="8"/>
+      <c r="BE62" s="8"/>
+      <c r="BF62" s="8"/>
+      <c r="BG62" s="8"/>
+    </row>
+    <row r="63" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="8"/>
+      <c r="AV63" s="8"/>
+      <c r="AW63" s="8"/>
+      <c r="AX63" s="8"/>
+      <c r="AY63" s="8"/>
+      <c r="AZ63" s="8"/>
+      <c r="BA63" s="8"/>
+      <c r="BB63" s="8"/>
+      <c r="BC63" s="8"/>
+      <c r="BD63" s="8"/>
+      <c r="BE63" s="8"/>
+      <c r="BF63" s="8"/>
+      <c r="BG63" s="8"/>
+    </row>
+    <row r="64" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT64" s="10"/>
+      <c r="AU64" s="8"/>
+      <c r="AV64" s="8"/>
+      <c r="AW64" s="8"/>
+      <c r="AX64" s="8"/>
+      <c r="AY64" s="8"/>
+      <c r="AZ64" s="8"/>
+      <c r="BA64" s="8"/>
+      <c r="BB64" s="8"/>
+      <c r="BC64" s="8"/>
+      <c r="BD64" s="8"/>
+      <c r="BE64" s="8"/>
+      <c r="BF64" s="8"/>
+      <c r="BG64" s="8"/>
+    </row>
+    <row r="65" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT65" s="10"/>
+      <c r="AU65" s="8"/>
+      <c r="AV65" s="8"/>
+      <c r="AW65" s="8"/>
+      <c r="AX65" s="8"/>
+      <c r="AY65" s="8"/>
+      <c r="AZ65" s="8"/>
+      <c r="BA65" s="8"/>
+      <c r="BB65" s="8"/>
+      <c r="BC65" s="8"/>
+      <c r="BD65" s="8"/>
+      <c r="BE65" s="8"/>
+      <c r="BF65" s="8"/>
+      <c r="BG65" s="8"/>
+    </row>
+    <row r="66" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="8"/>
+      <c r="AV66" s="8"/>
+      <c r="AW66" s="8"/>
+      <c r="AX66" s="8"/>
+      <c r="AY66" s="8"/>
+      <c r="AZ66" s="8"/>
+      <c r="BA66" s="8"/>
+      <c r="BB66" s="8"/>
+      <c r="BC66" s="8"/>
+      <c r="BD66" s="8"/>
+      <c r="BE66" s="8"/>
+      <c r="BF66" s="8"/>
+      <c r="BG66" s="8"/>
+    </row>
+    <row r="67" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="8"/>
+      <c r="AV67" s="8"/>
+      <c r="AW67" s="8"/>
+      <c r="AX67" s="8"/>
+      <c r="AY67" s="8"/>
+      <c r="AZ67" s="8"/>
+      <c r="BA67" s="8"/>
+      <c r="BB67" s="8"/>
+      <c r="BC67" s="8"/>
+      <c r="BD67" s="8"/>
+      <c r="BE67" s="8"/>
+      <c r="BF67" s="8"/>
+      <c r="BG67" s="8"/>
+    </row>
+    <row r="68" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT68" s="10"/>
+      <c r="AU68" s="8"/>
+      <c r="AV68" s="8"/>
+      <c r="AW68" s="8"/>
+      <c r="AX68" s="8"/>
+      <c r="AY68" s="8"/>
+      <c r="AZ68" s="8"/>
+      <c r="BA68" s="8"/>
+      <c r="BB68" s="8"/>
+      <c r="BC68" s="8"/>
+      <c r="BD68" s="8"/>
+      <c r="BE68" s="8"/>
+      <c r="BF68" s="8"/>
+      <c r="BG68" s="8"/>
+    </row>
+    <row r="69" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT69" s="10"/>
+      <c r="AU69" s="8"/>
+      <c r="AV69" s="8"/>
+      <c r="AW69" s="8"/>
+      <c r="AX69" s="8"/>
+      <c r="AY69" s="8"/>
+      <c r="AZ69" s="8"/>
+      <c r="BA69" s="8"/>
+      <c r="BB69" s="8"/>
+      <c r="BC69" s="8"/>
+      <c r="BD69" s="8"/>
+      <c r="BE69" s="8"/>
+      <c r="BF69" s="8"/>
+      <c r="BG69" s="8"/>
+    </row>
+    <row r="70" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT70" s="10"/>
+      <c r="AU70" s="8"/>
+      <c r="AV70" s="8"/>
+      <c r="AW70" s="8"/>
+      <c r="AX70" s="8"/>
+      <c r="AY70" s="8"/>
+      <c r="AZ70" s="8"/>
+      <c r="BA70" s="8"/>
+      <c r="BB70" s="8"/>
+      <c r="BC70" s="8"/>
+      <c r="BD70" s="8"/>
+      <c r="BE70" s="8"/>
+      <c r="BF70" s="8"/>
+      <c r="BG70" s="8"/>
+    </row>
+    <row r="71" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="8"/>
+      <c r="AV71" s="8"/>
+      <c r="AW71" s="8"/>
+      <c r="AX71" s="8"/>
+      <c r="AY71" s="8"/>
+      <c r="AZ71" s="8"/>
+      <c r="BA71" s="8"/>
+      <c r="BB71" s="8"/>
+      <c r="BC71" s="8"/>
+      <c r="BD71" s="8"/>
+      <c r="BE71" s="8"/>
+      <c r="BF71" s="8"/>
+      <c r="BG71" s="8"/>
+    </row>
+    <row r="72" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT72" s="9"/>
+      <c r="AU72" s="8"/>
+      <c r="AV72" s="8"/>
+      <c r="AW72" s="8"/>
+      <c r="AX72" s="8"/>
+      <c r="AY72" s="8"/>
+      <c r="AZ72" s="8"/>
+      <c r="BA72" s="8"/>
+      <c r="BB72" s="8"/>
+      <c r="BC72" s="8"/>
+      <c r="BD72" s="8"/>
+      <c r="BE72" s="8"/>
+      <c r="BF72" s="8"/>
+      <c r="BG72" s="8"/>
+    </row>
+    <row r="73" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT73" s="9"/>
+      <c r="AU73" s="8"/>
+      <c r="AV73" s="8"/>
+      <c r="AW73" s="8"/>
+      <c r="AX73" s="8"/>
+      <c r="AY73" s="8"/>
+      <c r="AZ73" s="8"/>
+      <c r="BA73" s="8"/>
+      <c r="BB73" s="8"/>
+      <c r="BC73" s="8"/>
+      <c r="BD73" s="8"/>
+      <c r="BE73" s="8"/>
+      <c r="BF73" s="8"/>
+      <c r="BG73" s="8"/>
+    </row>
+    <row r="74" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT74" s="10"/>
+      <c r="AU74" s="8"/>
+      <c r="AV74" s="8"/>
+      <c r="AW74" s="8"/>
+      <c r="AX74" s="8"/>
+      <c r="AY74" s="8"/>
+      <c r="AZ74" s="8"/>
+      <c r="BA74" s="8"/>
+      <c r="BB74" s="8"/>
+      <c r="BC74" s="8"/>
+      <c r="BD74" s="8"/>
+      <c r="BE74" s="8"/>
+      <c r="BF74" s="8"/>
+      <c r="BG74" s="8"/>
+    </row>
+    <row r="75" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT75" s="10"/>
+      <c r="AU75" s="8"/>
+      <c r="AV75" s="8"/>
+      <c r="AW75" s="8"/>
+      <c r="AX75" s="8"/>
+      <c r="AY75" s="8"/>
+      <c r="AZ75" s="8"/>
+      <c r="BA75" s="8"/>
+      <c r="BB75" s="8"/>
+      <c r="BC75" s="8"/>
+      <c r="BD75" s="8"/>
+      <c r="BE75" s="8"/>
+      <c r="BF75" s="8"/>
+      <c r="BG75" s="8"/>
+    </row>
+    <row r="76" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT76" s="9"/>
+      <c r="AU76" s="8"/>
+      <c r="AV76" s="8"/>
+      <c r="AW76" s="8"/>
+      <c r="AX76" s="8"/>
+      <c r="AY76" s="8"/>
+      <c r="AZ76" s="8"/>
+      <c r="BA76" s="8"/>
+      <c r="BB76" s="8"/>
+      <c r="BC76" s="8"/>
+      <c r="BD76" s="8"/>
+      <c r="BE76" s="8"/>
+      <c r="BF76" s="8"/>
+      <c r="BG76" s="8"/>
+    </row>
+    <row r="77" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT77" s="10"/>
+      <c r="AU77" s="8"/>
+      <c r="AV77" s="8"/>
+      <c r="AW77" s="8"/>
+      <c r="AX77" s="8"/>
+      <c r="AY77" s="8"/>
+      <c r="AZ77" s="8"/>
+      <c r="BA77" s="8"/>
+      <c r="BB77" s="8"/>
+      <c r="BC77" s="8"/>
+      <c r="BD77" s="8"/>
+      <c r="BE77" s="8"/>
+      <c r="BF77" s="8"/>
+      <c r="BG77" s="8"/>
+    </row>
+    <row r="78" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT78" s="9"/>
+      <c r="AU78" s="8"/>
+      <c r="AV78" s="8"/>
+      <c r="AW78" s="8"/>
+      <c r="AX78" s="8"/>
+      <c r="AY78" s="8"/>
+      <c r="AZ78" s="8"/>
+      <c r="BA78" s="8"/>
+      <c r="BB78" s="8"/>
+      <c r="BC78" s="8"/>
+      <c r="BD78" s="8"/>
+      <c r="BE78" s="8"/>
+      <c r="BF78" s="8"/>
+      <c r="BG78" s="8"/>
+    </row>
+    <row r="79" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT79" s="10"/>
+      <c r="AU79" s="8"/>
+      <c r="AV79" s="8"/>
+      <c r="AW79" s="8"/>
+      <c r="AX79" s="8"/>
+      <c r="AY79" s="8"/>
+      <c r="AZ79" s="8"/>
+      <c r="BA79" s="8"/>
+      <c r="BB79" s="8"/>
+      <c r="BC79" s="8"/>
+      <c r="BD79" s="8"/>
+      <c r="BE79" s="8"/>
+      <c r="BF79" s="8"/>
+      <c r="BG79" s="8"/>
+    </row>
+    <row r="80" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT80" s="10"/>
+      <c r="AU80" s="8"/>
+      <c r="AV80" s="8"/>
+      <c r="AW80" s="8"/>
+      <c r="AX80" s="8"/>
+      <c r="AY80" s="8"/>
+      <c r="AZ80" s="8"/>
+      <c r="BA80" s="8"/>
+      <c r="BB80" s="8"/>
+      <c r="BC80" s="8"/>
+      <c r="BD80" s="8"/>
+      <c r="BE80" s="8"/>
+      <c r="BF80" s="8"/>
+      <c r="BG80" s="8"/>
+    </row>
+    <row r="81" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT81" s="10"/>
+      <c r="AU81" s="8"/>
+      <c r="AV81" s="8"/>
+      <c r="AW81" s="8"/>
+      <c r="AX81" s="8"/>
+      <c r="AY81" s="8"/>
+      <c r="AZ81" s="8"/>
+      <c r="BA81" s="8"/>
+      <c r="BB81" s="8"/>
+      <c r="BC81" s="8"/>
+      <c r="BD81" s="8"/>
+      <c r="BE81" s="8"/>
+      <c r="BF81" s="8"/>
+      <c r="BG81" s="8"/>
+    </row>
+    <row r="82" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT82" s="10"/>
+      <c r="AU82" s="8"/>
+      <c r="AV82" s="8"/>
+      <c r="AW82" s="8"/>
+      <c r="AX82" s="8"/>
+      <c r="AY82" s="8"/>
+      <c r="AZ82" s="8"/>
+      <c r="BA82" s="8"/>
+      <c r="BB82" s="8"/>
+      <c r="BC82" s="8"/>
+      <c r="BD82" s="8"/>
+      <c r="BE82" s="8"/>
+      <c r="BF82" s="8"/>
+      <c r="BG82" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B1AE42-1584-4699-AEB7-ABDA53CC5B25}">
+  <dimension ref="B2:CE83"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="CA3" s="6"/>
+      <c r="CE3" s="6"/>
+    </row>
+    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT4" s="2"/>
+      <c r="CA4" s="6"/>
+      <c r="CE4" s="6"/>
+    </row>
+    <row r="5" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT10" s="2"/>
+      <c r="CA10" s="6"/>
+      <c r="CE10" s="6"/>
+    </row>
+    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU11" s="4"/>
+    </row>
+    <row r="12" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="AU12" s="4"/>
+    </row>
+    <row r="25" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AT25" s="2"/>
+    </row>
+    <row r="26" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AU26" s="4"/>
+    </row>
+    <row r="30" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="2"/>
+      <c r="BD30" s="2"/>
+    </row>
+    <row r="31" spans="46:56" x14ac:dyDescent="0.25">
+      <c r="AW31" s="4"/>
+    </row>
+    <row r="34" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT34" s="2"/>
+    </row>
+    <row r="38" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT38" s="2"/>
+    </row>
+    <row r="43" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT43" s="2"/>
+    </row>
+    <row r="44" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AU44" s="4"/>
+    </row>
+    <row r="48" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="8"/>
+      <c r="AX48" s="8"/>
+      <c r="AY48" s="8"/>
+      <c r="AZ48" s="8"/>
+      <c r="BA48" s="8"/>
+      <c r="BB48" s="8"/>
+      <c r="BC48" s="8"/>
+      <c r="BD48" s="8"/>
+      <c r="BE48" s="8"/>
+      <c r="BF48" s="8"/>
+      <c r="BG48" s="8"/>
+    </row>
+    <row r="49" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="8"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="8"/>
+      <c r="AX49" s="8"/>
+      <c r="AY49" s="8"/>
+      <c r="AZ49" s="8"/>
+      <c r="BA49" s="8"/>
+      <c r="BB49" s="8"/>
+      <c r="BC49" s="8"/>
+      <c r="BD49" s="8"/>
+      <c r="BE49" s="8"/>
+      <c r="BF49" s="8"/>
+      <c r="BG49" s="8"/>
+    </row>
+    <row r="50" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="8"/>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="8"/>
+      <c r="AY50" s="8"/>
+      <c r="AZ50" s="8"/>
+      <c r="BA50" s="8"/>
+      <c r="BB50" s="8"/>
+      <c r="BC50" s="8"/>
+      <c r="BD50" s="8"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="8"/>
+      <c r="BG50" s="8"/>
+    </row>
+    <row r="51" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="8"/>
+      <c r="AW51" s="8"/>
+      <c r="AX51" s="8"/>
+      <c r="AY51" s="8"/>
+      <c r="AZ51" s="8"/>
+      <c r="BA51" s="8"/>
+      <c r="BB51" s="8"/>
+      <c r="BC51" s="8"/>
+      <c r="BD51" s="8"/>
+      <c r="BE51" s="8"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+    </row>
+    <row r="52" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="8"/>
+      <c r="AV52" s="8"/>
+      <c r="AW52" s="8"/>
+      <c r="AX52" s="8"/>
+      <c r="AY52" s="8"/>
+      <c r="AZ52" s="8"/>
+      <c r="BA52" s="8"/>
+      <c r="BB52" s="8"/>
+      <c r="BC52" s="8"/>
+      <c r="BD52" s="8"/>
+      <c r="BE52" s="8"/>
+      <c r="BF52" s="8"/>
+      <c r="BG52" s="8"/>
+    </row>
+    <row r="53" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="8"/>
+      <c r="AV53" s="8"/>
+      <c r="AW53" s="8"/>
+      <c r="AX53" s="8"/>
+      <c r="AY53" s="8"/>
+      <c r="AZ53" s="8"/>
+      <c r="BA53" s="8"/>
+      <c r="BB53" s="8"/>
+      <c r="BC53" s="8"/>
+      <c r="BD53" s="8"/>
+      <c r="BE53" s="8"/>
+      <c r="BF53" s="8"/>
+      <c r="BG53" s="8"/>
+    </row>
+    <row r="54" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="8"/>
+      <c r="AV54" s="8"/>
+      <c r="AW54" s="8"/>
+      <c r="AX54" s="8"/>
+      <c r="AY54" s="8"/>
+      <c r="AZ54" s="8"/>
+      <c r="BA54" s="8"/>
+      <c r="BB54" s="8"/>
+      <c r="BC54" s="8"/>
+      <c r="BD54" s="8"/>
+      <c r="BE54" s="8"/>
+      <c r="BF54" s="8"/>
+      <c r="BG54" s="8"/>
+    </row>
+    <row r="55" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT55" s="7"/>
+      <c r="AU55" s="8"/>
+      <c r="AV55" s="8"/>
+      <c r="AW55" s="8"/>
+      <c r="AX55" s="8"/>
+      <c r="AY55" s="8"/>
+      <c r="AZ55" s="8"/>
+      <c r="BA55" s="8"/>
+      <c r="BB55" s="8"/>
+      <c r="BC55" s="8"/>
+      <c r="BD55" s="8"/>
+      <c r="BE55" s="8"/>
+      <c r="BF55" s="8"/>
+      <c r="BG55" s="8"/>
+    </row>
+    <row r="56" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="8"/>
+      <c r="AV56" s="8"/>
+      <c r="AW56" s="8"/>
+      <c r="AX56" s="8"/>
+      <c r="AY56" s="8"/>
+      <c r="AZ56" s="8"/>
+      <c r="BA56" s="8"/>
+      <c r="BB56" s="8"/>
+      <c r="BC56" s="8"/>
+      <c r="BD56" s="8"/>
+      <c r="BE56" s="8"/>
+      <c r="BF56" s="8"/>
+      <c r="BG56" s="8"/>
+    </row>
+    <row r="57" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="8"/>
+      <c r="AV57" s="8"/>
+      <c r="AW57" s="8"/>
+      <c r="AX57" s="8"/>
+      <c r="AY57" s="8"/>
+      <c r="AZ57" s="8"/>
+      <c r="BA57" s="8"/>
+      <c r="BB57" s="8"/>
+      <c r="BC57" s="8"/>
+      <c r="BD57" s="8"/>
+      <c r="BE57" s="8"/>
+      <c r="BF57" s="8"/>
+      <c r="BG57" s="8"/>
+    </row>
+    <row r="58" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="8"/>
+      <c r="AV58" s="8"/>
+      <c r="AW58" s="8"/>
+      <c r="AX58" s="8"/>
+      <c r="AY58" s="8"/>
+      <c r="AZ58" s="8"/>
+      <c r="BA58" s="8"/>
+      <c r="BB58" s="8"/>
+      <c r="BC58" s="8"/>
+      <c r="BD58" s="8"/>
+      <c r="BE58" s="8"/>
+      <c r="BF58" s="8"/>
+      <c r="BG58" s="8"/>
+    </row>
+    <row r="59" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="8"/>
+      <c r="AV59" s="8"/>
+      <c r="AW59" s="8"/>
+      <c r="AX59" s="8"/>
+      <c r="AY59" s="8"/>
+      <c r="AZ59" s="8"/>
+      <c r="BA59" s="8"/>
+      <c r="BB59" s="8"/>
+      <c r="BC59" s="8"/>
+      <c r="BD59" s="8"/>
+      <c r="BE59" s="8"/>
+      <c r="BF59" s="8"/>
+      <c r="BG59" s="8"/>
+    </row>
+    <row r="60" spans="46:59" x14ac:dyDescent="0.25">
+      <c r="AT60" s="7"/>
+      <c r="AU60" s="8"/>
+      <c r="AV60" s="8"/>
+      <c r="AW60" s="8"/>
+      <c r="AX60" s="8"/>
+      <c r="AY60" s="8"/>
+      <c r="AZ60" s="8"/>
+      <c r="BA60" s="8"/>
+      <c r="BB60" s="8"/>
+      <c r="BC60" s="8"/>
+      <c r="BD60" s="8"/>
+      <c r="BE60" s="8"/>
+      <c r="BF60" s="8"/>
+      <c r="BG60" s="8"/>
+    </row>
+    <row r="61" spans="46:59" x14ac:dyDescent="0.25">
       <c r="AT61" s="7"/>
       <c r="AU61" s="8"/>
       <c r="AV61" s="8"/>
@@ -4390,7 +5819,7 @@
       <c r="BG61" s="8"/>
     </row>
     <row r="62" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT62" s="7"/>
+      <c r="AT62" s="9"/>
       <c r="AU62" s="8"/>
       <c r="AV62" s="8"/>
       <c r="AW62" s="8"/>
@@ -4406,7 +5835,7 @@
       <c r="BG62" s="8"/>
     </row>
     <row r="63" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT63" s="7"/>
+      <c r="AT63" s="10"/>
       <c r="AU63" s="8"/>
       <c r="AV63" s="8"/>
       <c r="AW63" s="8"/>
@@ -4422,7 +5851,7 @@
       <c r="BG63" s="8"/>
     </row>
     <row r="64" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT64" s="7"/>
+      <c r="AT64" s="9"/>
       <c r="AU64" s="8"/>
       <c r="AV64" s="8"/>
       <c r="AW64" s="8"/>
@@ -4438,7 +5867,7 @@
       <c r="BG64" s="8"/>
     </row>
     <row r="65" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT65" s="7"/>
+      <c r="AT65" s="10"/>
       <c r="AU65" s="8"/>
       <c r="AV65" s="8"/>
       <c r="AW65" s="8"/>
@@ -4454,7 +5883,7 @@
       <c r="BG65" s="8"/>
     </row>
     <row r="66" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT66" s="7"/>
+      <c r="AT66" s="10"/>
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
       <c r="AW66" s="8"/>
@@ -4502,7 +5931,7 @@
       <c r="BG68" s="8"/>
     </row>
     <row r="69" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT69" s="9"/>
+      <c r="AT69" s="10"/>
       <c r="AU69" s="8"/>
       <c r="AV69" s="8"/>
       <c r="AW69" s="8"/>
@@ -4550,7 +5979,7 @@
       <c r="BG71" s="8"/>
     </row>
     <row r="72" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT72" s="9"/>
+      <c r="AT72" s="10"/>
       <c r="AU72" s="8"/>
       <c r="AV72" s="8"/>
       <c r="AW72" s="8"/>
@@ -4566,7 +5995,7 @@
       <c r="BG72" s="8"/>
     </row>
     <row r="73" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT73" s="10"/>
+      <c r="AT73" s="9"/>
       <c r="AU73" s="8"/>
       <c r="AV73" s="8"/>
       <c r="AW73" s="8"/>
@@ -4582,7 +6011,7 @@
       <c r="BG73" s="8"/>
     </row>
     <row r="74" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT74" s="10"/>
+      <c r="AT74" s="9"/>
       <c r="AU74" s="8"/>
       <c r="AV74" s="8"/>
       <c r="AW74" s="8"/>
@@ -4630,7 +6059,7 @@
       <c r="BG76" s="8"/>
     </row>
     <row r="77" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT77" s="10"/>
+      <c r="AT77" s="9"/>
       <c r="AU77" s="8"/>
       <c r="AV77" s="8"/>
       <c r="AW77" s="8"/>
@@ -4646,7 +6075,7 @@
       <c r="BG77" s="8"/>
     </row>
     <row r="78" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT78" s="9"/>
+      <c r="AT78" s="10"/>
       <c r="AU78" s="8"/>
       <c r="AV78" s="8"/>
       <c r="AW78" s="8"/>
@@ -4710,7 +6139,7 @@
       <c r="BG81" s="8"/>
     </row>
     <row r="82" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT82" s="9"/>
+      <c r="AT82" s="10"/>
       <c r="AU82" s="8"/>
       <c r="AV82" s="8"/>
       <c r="AW82" s="8"/>
@@ -4741,1475 +6170,18 @@
       <c r="BF83" s="8"/>
       <c r="BG83" s="8"/>
     </row>
-    <row r="84" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT84" s="9"/>
-      <c r="AU84" s="8"/>
-      <c r="AV84" s="8"/>
-      <c r="AW84" s="8"/>
-      <c r="AX84" s="8"/>
-      <c r="AY84" s="8"/>
-      <c r="AZ84" s="8"/>
-      <c r="BA84" s="8"/>
-      <c r="BB84" s="8"/>
-      <c r="BC84" s="8"/>
-      <c r="BD84" s="8"/>
-      <c r="BE84" s="8"/>
-      <c r="BF84" s="8"/>
-      <c r="BG84" s="8"/>
-    </row>
-    <row r="85" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT85" s="10"/>
-      <c r="AU85" s="8"/>
-      <c r="AV85" s="8"/>
-      <c r="AW85" s="8"/>
-      <c r="AX85" s="8"/>
-      <c r="AY85" s="8"/>
-      <c r="AZ85" s="8"/>
-      <c r="BA85" s="8"/>
-      <c r="BB85" s="8"/>
-      <c r="BC85" s="8"/>
-      <c r="BD85" s="8"/>
-      <c r="BE85" s="8"/>
-      <c r="BF85" s="8"/>
-      <c r="BG85" s="8"/>
-    </row>
-    <row r="86" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT86" s="10"/>
-      <c r="AU86" s="8"/>
-      <c r="AV86" s="8"/>
-      <c r="AW86" s="8"/>
-      <c r="AX86" s="8"/>
-      <c r="AY86" s="8"/>
-      <c r="AZ86" s="8"/>
-      <c r="BA86" s="8"/>
-      <c r="BB86" s="8"/>
-      <c r="BC86" s="8"/>
-      <c r="BD86" s="8"/>
-      <c r="BE86" s="8"/>
-      <c r="BF86" s="8"/>
-      <c r="BG86" s="8"/>
-    </row>
-    <row r="87" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT87" s="10"/>
-      <c r="AU87" s="8"/>
-      <c r="AV87" s="8"/>
-      <c r="AW87" s="8"/>
-      <c r="AX87" s="8"/>
-      <c r="AY87" s="8"/>
-      <c r="AZ87" s="8"/>
-      <c r="BA87" s="8"/>
-      <c r="BB87" s="8"/>
-      <c r="BC87" s="8"/>
-      <c r="BD87" s="8"/>
-      <c r="BE87" s="8"/>
-      <c r="BF87" s="8"/>
-      <c r="BG87" s="8"/>
-    </row>
-    <row r="88" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT88" s="10"/>
-      <c r="AU88" s="8"/>
-      <c r="AV88" s="8"/>
-      <c r="AW88" s="8"/>
-      <c r="AX88" s="8"/>
-      <c r="AY88" s="8"/>
-      <c r="AZ88" s="8"/>
-      <c r="BA88" s="8"/>
-      <c r="BB88" s="8"/>
-      <c r="BC88" s="8"/>
-      <c r="BD88" s="8"/>
-      <c r="BE88" s="8"/>
-      <c r="BF88" s="8"/>
-      <c r="BG88" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB436E13-AA50-4020-8D2C-F45AAF8B9988}">
-  <dimension ref="B2:CE91"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AK7:AL7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="K2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="K3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="K4" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="K5" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="K6" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="K8" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:83" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT11" s="2"/>
-      <c r="CA11" s="6"/>
-      <c r="CE11" s="6"/>
-    </row>
-    <row r="12" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU12" s="4"/>
-    </row>
-    <row r="14" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU14" s="4"/>
-    </row>
-    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU16" s="4"/>
-    </row>
-    <row r="18" spans="47:47" x14ac:dyDescent="0.25">
-      <c r="AU18" s="4"/>
-    </row>
-    <row r="20" spans="47:47" x14ac:dyDescent="0.25">
-      <c r="AU20" s="4"/>
-    </row>
-    <row r="33" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT33" s="2"/>
-    </row>
-    <row r="34" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AU34" s="4"/>
-    </row>
-    <row r="38" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="2"/>
-      <c r="BD38" s="2"/>
-    </row>
-    <row r="39" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW39" s="4"/>
-    </row>
-    <row r="42" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT42" s="2"/>
-    </row>
-    <row r="46" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT46" s="2"/>
-    </row>
-    <row r="51" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT51" s="2"/>
-    </row>
-    <row r="52" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AU52" s="4"/>
-    </row>
-    <row r="56" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT56" s="7"/>
-      <c r="AU56" s="8"/>
-      <c r="AV56" s="11"/>
-      <c r="AW56" s="8"/>
-      <c r="AX56" s="8"/>
-      <c r="AY56" s="8"/>
-      <c r="AZ56" s="8"/>
-      <c r="BA56" s="8"/>
-      <c r="BB56" s="8"/>
-      <c r="BC56" s="8"/>
-      <c r="BD56" s="8"/>
-      <c r="BE56" s="8"/>
-      <c r="BF56" s="8"/>
-      <c r="BG56" s="8"/>
-    </row>
-    <row r="57" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT57" s="7"/>
-      <c r="AU57" s="8"/>
-      <c r="AV57" s="12"/>
-      <c r="AW57" s="8"/>
-      <c r="AX57" s="8"/>
-      <c r="AY57" s="8"/>
-      <c r="AZ57" s="8"/>
-      <c r="BA57" s="8"/>
-      <c r="BB57" s="8"/>
-      <c r="BC57" s="8"/>
-      <c r="BD57" s="8"/>
-      <c r="BE57" s="8"/>
-      <c r="BF57" s="8"/>
-      <c r="BG57" s="8"/>
-    </row>
-    <row r="58" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT58" s="7"/>
-      <c r="AU58" s="8"/>
-      <c r="AV58" s="8"/>
-      <c r="AW58" s="8"/>
-      <c r="AX58" s="8"/>
-      <c r="AY58" s="8"/>
-      <c r="AZ58" s="8"/>
-      <c r="BA58" s="8"/>
-      <c r="BB58" s="8"/>
-      <c r="BC58" s="8"/>
-      <c r="BD58" s="8"/>
-      <c r="BE58" s="8"/>
-      <c r="BF58" s="8"/>
-      <c r="BG58" s="8"/>
-    </row>
-    <row r="59" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT59" s="7"/>
-      <c r="AU59" s="8"/>
-      <c r="AV59" s="8"/>
-      <c r="AW59" s="8"/>
-      <c r="AX59" s="8"/>
-      <c r="AY59" s="8"/>
-      <c r="AZ59" s="8"/>
-      <c r="BA59" s="8"/>
-      <c r="BB59" s="8"/>
-      <c r="BC59" s="8"/>
-      <c r="BD59" s="8"/>
-      <c r="BE59" s="8"/>
-      <c r="BF59" s="8"/>
-      <c r="BG59" s="8"/>
-    </row>
-    <row r="60" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT60" s="7"/>
-      <c r="AU60" s="8"/>
-      <c r="AV60" s="8"/>
-      <c r="AW60" s="8"/>
-      <c r="AX60" s="8"/>
-      <c r="AY60" s="8"/>
-      <c r="AZ60" s="8"/>
-      <c r="BA60" s="8"/>
-      <c r="BB60" s="8"/>
-      <c r="BC60" s="8"/>
-      <c r="BD60" s="8"/>
-      <c r="BE60" s="8"/>
-      <c r="BF60" s="8"/>
-      <c r="BG60" s="8"/>
-    </row>
-    <row r="61" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT61" s="7"/>
-      <c r="AU61" s="8"/>
-      <c r="AV61" s="8"/>
-      <c r="AW61" s="8"/>
-      <c r="AX61" s="8"/>
-      <c r="AY61" s="8"/>
-      <c r="AZ61" s="8"/>
-      <c r="BA61" s="8"/>
-      <c r="BB61" s="8"/>
-      <c r="BC61" s="8"/>
-      <c r="BD61" s="8"/>
-      <c r="BE61" s="8"/>
-      <c r="BF61" s="8"/>
-      <c r="BG61" s="8"/>
-    </row>
-    <row r="62" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT62" s="7"/>
-      <c r="AU62" s="8"/>
-      <c r="AV62" s="8"/>
-      <c r="AW62" s="8"/>
-      <c r="AX62" s="8"/>
-      <c r="AY62" s="8"/>
-      <c r="AZ62" s="8"/>
-      <c r="BA62" s="8"/>
-      <c r="BB62" s="8"/>
-      <c r="BC62" s="8"/>
-      <c r="BD62" s="8"/>
-      <c r="BE62" s="8"/>
-      <c r="BF62" s="8"/>
-      <c r="BG62" s="8"/>
-    </row>
-    <row r="63" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT63" s="7"/>
-      <c r="AU63" s="8"/>
-      <c r="AV63" s="8"/>
-      <c r="AW63" s="8"/>
-      <c r="AX63" s="8"/>
-      <c r="AY63" s="8"/>
-      <c r="AZ63" s="8"/>
-      <c r="BA63" s="8"/>
-      <c r="BB63" s="8"/>
-      <c r="BC63" s="8"/>
-      <c r="BD63" s="8"/>
-      <c r="BE63" s="8"/>
-      <c r="BF63" s="8"/>
-      <c r="BG63" s="8"/>
-    </row>
-    <row r="64" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT64" s="7"/>
-      <c r="AU64" s="8"/>
-      <c r="AV64" s="8"/>
-      <c r="AW64" s="8"/>
-      <c r="AX64" s="8"/>
-      <c r="AY64" s="8"/>
-      <c r="AZ64" s="8"/>
-      <c r="BA64" s="8"/>
-      <c r="BB64" s="8"/>
-      <c r="BC64" s="8"/>
-      <c r="BD64" s="8"/>
-      <c r="BE64" s="8"/>
-      <c r="BF64" s="8"/>
-      <c r="BG64" s="8"/>
-    </row>
-    <row r="65" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT65" s="7"/>
-      <c r="AU65" s="8"/>
-      <c r="AV65" s="8"/>
-      <c r="AW65" s="8"/>
-      <c r="AX65" s="8"/>
-      <c r="AY65" s="8"/>
-      <c r="AZ65" s="8"/>
-      <c r="BA65" s="8"/>
-      <c r="BB65" s="8"/>
-      <c r="BC65" s="8"/>
-      <c r="BD65" s="8"/>
-      <c r="BE65" s="8"/>
-      <c r="BF65" s="8"/>
-      <c r="BG65" s="8"/>
-    </row>
-    <row r="66" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT66" s="7"/>
-      <c r="AU66" s="8"/>
-      <c r="AV66" s="8"/>
-      <c r="AW66" s="8"/>
-      <c r="AX66" s="8"/>
-      <c r="AY66" s="8"/>
-      <c r="AZ66" s="8"/>
-      <c r="BA66" s="8"/>
-      <c r="BB66" s="8"/>
-      <c r="BC66" s="8"/>
-      <c r="BD66" s="8"/>
-      <c r="BE66" s="8"/>
-      <c r="BF66" s="8"/>
-      <c r="BG66" s="8"/>
-    </row>
-    <row r="67" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT67" s="7"/>
-      <c r="AU67" s="8"/>
-      <c r="AV67" s="8"/>
-      <c r="AW67" s="8"/>
-      <c r="AX67" s="8"/>
-      <c r="AY67" s="8"/>
-      <c r="AZ67" s="8"/>
-      <c r="BA67" s="8"/>
-      <c r="BB67" s="8"/>
-      <c r="BC67" s="8"/>
-      <c r="BD67" s="8"/>
-      <c r="BE67" s="8"/>
-      <c r="BF67" s="8"/>
-      <c r="BG67" s="8"/>
-    </row>
-    <row r="68" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT68" s="7"/>
-      <c r="AU68" s="8"/>
-      <c r="AV68" s="8"/>
-      <c r="AW68" s="8"/>
-      <c r="AX68" s="8"/>
-      <c r="AY68" s="8"/>
-      <c r="AZ68" s="8"/>
-      <c r="BA68" s="8"/>
-      <c r="BB68" s="8"/>
-      <c r="BC68" s="8"/>
-      <c r="BD68" s="8"/>
-      <c r="BE68" s="8"/>
-      <c r="BF68" s="8"/>
-      <c r="BG68" s="8"/>
-    </row>
-    <row r="69" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT69" s="7"/>
-      <c r="AU69" s="8"/>
-      <c r="AV69" s="8"/>
-      <c r="AW69" s="8"/>
-      <c r="AX69" s="8"/>
-      <c r="AY69" s="8"/>
-      <c r="AZ69" s="8"/>
-      <c r="BA69" s="8"/>
-      <c r="BB69" s="8"/>
-      <c r="BC69" s="8"/>
-      <c r="BD69" s="8"/>
-      <c r="BE69" s="8"/>
-      <c r="BF69" s="8"/>
-      <c r="BG69" s="8"/>
-    </row>
-    <row r="70" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT70" s="9"/>
-      <c r="AU70" s="8"/>
-      <c r="AV70" s="8"/>
-      <c r="AW70" s="8"/>
-      <c r="AX70" s="8"/>
-      <c r="AY70" s="8"/>
-      <c r="AZ70" s="8"/>
-      <c r="BA70" s="8"/>
-      <c r="BB70" s="8"/>
-      <c r="BC70" s="8"/>
-      <c r="BD70" s="8"/>
-      <c r="BE70" s="8"/>
-      <c r="BF70" s="8"/>
-      <c r="BG70" s="8"/>
-    </row>
-    <row r="71" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT71" s="10"/>
-      <c r="AU71" s="8"/>
-      <c r="AV71" s="8"/>
-      <c r="AW71" s="8"/>
-      <c r="AX71" s="8"/>
-      <c r="AY71" s="8"/>
-      <c r="AZ71" s="8"/>
-      <c r="BA71" s="8"/>
-      <c r="BB71" s="8"/>
-      <c r="BC71" s="8"/>
-      <c r="BD71" s="8"/>
-      <c r="BE71" s="8"/>
-      <c r="BF71" s="8"/>
-      <c r="BG71" s="8"/>
-    </row>
-    <row r="72" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT72" s="9"/>
-      <c r="AU72" s="8"/>
-      <c r="AV72" s="8"/>
-      <c r="AW72" s="8"/>
-      <c r="AX72" s="8"/>
-      <c r="AY72" s="8"/>
-      <c r="AZ72" s="8"/>
-      <c r="BA72" s="8"/>
-      <c r="BB72" s="8"/>
-      <c r="BC72" s="8"/>
-      <c r="BD72" s="8"/>
-      <c r="BE72" s="8"/>
-      <c r="BF72" s="8"/>
-      <c r="BG72" s="8"/>
-    </row>
-    <row r="73" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT73" s="10"/>
-      <c r="AU73" s="8"/>
-      <c r="AV73" s="8"/>
-      <c r="AW73" s="8"/>
-      <c r="AX73" s="8"/>
-      <c r="AY73" s="8"/>
-      <c r="AZ73" s="8"/>
-      <c r="BA73" s="8"/>
-      <c r="BB73" s="8"/>
-      <c r="BC73" s="8"/>
-      <c r="BD73" s="8"/>
-      <c r="BE73" s="8"/>
-      <c r="BF73" s="8"/>
-      <c r="BG73" s="8"/>
-    </row>
-    <row r="74" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT74" s="10"/>
-      <c r="AU74" s="8"/>
-      <c r="AV74" s="8"/>
-      <c r="AW74" s="8"/>
-      <c r="AX74" s="8"/>
-      <c r="AY74" s="8"/>
-      <c r="AZ74" s="8"/>
-      <c r="BA74" s="8"/>
-      <c r="BB74" s="8"/>
-      <c r="BC74" s="8"/>
-      <c r="BD74" s="8"/>
-      <c r="BE74" s="8"/>
-      <c r="BF74" s="8"/>
-      <c r="BG74" s="8"/>
-    </row>
-    <row r="75" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT75" s="9"/>
-      <c r="AU75" s="8"/>
-      <c r="AV75" s="8"/>
-      <c r="AW75" s="8"/>
-      <c r="AX75" s="8"/>
-      <c r="AY75" s="8"/>
-      <c r="AZ75" s="8"/>
-      <c r="BA75" s="8"/>
-      <c r="BB75" s="8"/>
-      <c r="BC75" s="8"/>
-      <c r="BD75" s="8"/>
-      <c r="BE75" s="8"/>
-      <c r="BF75" s="8"/>
-      <c r="BG75" s="8"/>
-    </row>
-    <row r="76" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT76" s="10"/>
-      <c r="AU76" s="8"/>
-      <c r="AV76" s="8"/>
-      <c r="AW76" s="8"/>
-      <c r="AX76" s="8"/>
-      <c r="AY76" s="8"/>
-      <c r="AZ76" s="8"/>
-      <c r="BA76" s="8"/>
-      <c r="BB76" s="8"/>
-      <c r="BC76" s="8"/>
-      <c r="BD76" s="8"/>
-      <c r="BE76" s="8"/>
-      <c r="BF76" s="8"/>
-      <c r="BG76" s="8"/>
-    </row>
-    <row r="77" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT77" s="10"/>
-      <c r="AU77" s="8"/>
-      <c r="AV77" s="8"/>
-      <c r="AW77" s="8"/>
-      <c r="AX77" s="8"/>
-      <c r="AY77" s="8"/>
-      <c r="AZ77" s="8"/>
-      <c r="BA77" s="8"/>
-      <c r="BB77" s="8"/>
-      <c r="BC77" s="8"/>
-      <c r="BD77" s="8"/>
-      <c r="BE77" s="8"/>
-      <c r="BF77" s="8"/>
-      <c r="BG77" s="8"/>
-    </row>
-    <row r="78" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT78" s="10"/>
-      <c r="AU78" s="8"/>
-      <c r="AV78" s="8"/>
-      <c r="AW78" s="8"/>
-      <c r="AX78" s="8"/>
-      <c r="AY78" s="8"/>
-      <c r="AZ78" s="8"/>
-      <c r="BA78" s="8"/>
-      <c r="BB78" s="8"/>
-      <c r="BC78" s="8"/>
-      <c r="BD78" s="8"/>
-      <c r="BE78" s="8"/>
-      <c r="BF78" s="8"/>
-      <c r="BG78" s="8"/>
-    </row>
-    <row r="79" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT79" s="10"/>
-      <c r="AU79" s="8"/>
-      <c r="AV79" s="8"/>
-      <c r="AW79" s="8"/>
-      <c r="AX79" s="8"/>
-      <c r="AY79" s="8"/>
-      <c r="AZ79" s="8"/>
-      <c r="BA79" s="8"/>
-      <c r="BB79" s="8"/>
-      <c r="BC79" s="8"/>
-      <c r="BD79" s="8"/>
-      <c r="BE79" s="8"/>
-      <c r="BF79" s="8"/>
-      <c r="BG79" s="8"/>
-    </row>
-    <row r="80" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT80" s="10"/>
-      <c r="AU80" s="8"/>
-      <c r="AV80" s="8"/>
-      <c r="AW80" s="8"/>
-      <c r="AX80" s="8"/>
-      <c r="AY80" s="8"/>
-      <c r="AZ80" s="8"/>
-      <c r="BA80" s="8"/>
-      <c r="BB80" s="8"/>
-      <c r="BC80" s="8"/>
-      <c r="BD80" s="8"/>
-      <c r="BE80" s="8"/>
-      <c r="BF80" s="8"/>
-      <c r="BG80" s="8"/>
-    </row>
-    <row r="81" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT81" s="9"/>
-      <c r="AU81" s="8"/>
-      <c r="AV81" s="8"/>
-      <c r="AW81" s="8"/>
-      <c r="AX81" s="8"/>
-      <c r="AY81" s="8"/>
-      <c r="AZ81" s="8"/>
-      <c r="BA81" s="8"/>
-      <c r="BB81" s="8"/>
-      <c r="BC81" s="8"/>
-      <c r="BD81" s="8"/>
-      <c r="BE81" s="8"/>
-      <c r="BF81" s="8"/>
-      <c r="BG81" s="8"/>
-    </row>
-    <row r="82" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT82" s="9"/>
-      <c r="AU82" s="8"/>
-      <c r="AV82" s="8"/>
-      <c r="AW82" s="8"/>
-      <c r="AX82" s="8"/>
-      <c r="AY82" s="8"/>
-      <c r="AZ82" s="8"/>
-      <c r="BA82" s="8"/>
-      <c r="BB82" s="8"/>
-      <c r="BC82" s="8"/>
-      <c r="BD82" s="8"/>
-      <c r="BE82" s="8"/>
-      <c r="BF82" s="8"/>
-      <c r="BG82" s="8"/>
-    </row>
-    <row r="83" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT83" s="10"/>
-      <c r="AU83" s="8"/>
-      <c r="AV83" s="8"/>
-      <c r="AW83" s="8"/>
-      <c r="AX83" s="8"/>
-      <c r="AY83" s="8"/>
-      <c r="AZ83" s="8"/>
-      <c r="BA83" s="8"/>
-      <c r="BB83" s="8"/>
-      <c r="BC83" s="8"/>
-      <c r="BD83" s="8"/>
-      <c r="BE83" s="8"/>
-      <c r="BF83" s="8"/>
-      <c r="BG83" s="8"/>
-    </row>
-    <row r="84" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT84" s="10"/>
-      <c r="AU84" s="8"/>
-      <c r="AV84" s="8"/>
-      <c r="AW84" s="8"/>
-      <c r="AX84" s="8"/>
-      <c r="AY84" s="8"/>
-      <c r="AZ84" s="8"/>
-      <c r="BA84" s="8"/>
-      <c r="BB84" s="8"/>
-      <c r="BC84" s="8"/>
-      <c r="BD84" s="8"/>
-      <c r="BE84" s="8"/>
-      <c r="BF84" s="8"/>
-      <c r="BG84" s="8"/>
-    </row>
-    <row r="85" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT85" s="9"/>
-      <c r="AU85" s="8"/>
-      <c r="AV85" s="8"/>
-      <c r="AW85" s="8"/>
-      <c r="AX85" s="8"/>
-      <c r="AY85" s="8"/>
-      <c r="AZ85" s="8"/>
-      <c r="BA85" s="8"/>
-      <c r="BB85" s="8"/>
-      <c r="BC85" s="8"/>
-      <c r="BD85" s="8"/>
-      <c r="BE85" s="8"/>
-      <c r="BF85" s="8"/>
-      <c r="BG85" s="8"/>
-    </row>
-    <row r="86" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT86" s="10"/>
-      <c r="AU86" s="8"/>
-      <c r="AV86" s="8"/>
-      <c r="AW86" s="8"/>
-      <c r="AX86" s="8"/>
-      <c r="AY86" s="8"/>
-      <c r="AZ86" s="8"/>
-      <c r="BA86" s="8"/>
-      <c r="BB86" s="8"/>
-      <c r="BC86" s="8"/>
-      <c r="BD86" s="8"/>
-      <c r="BE86" s="8"/>
-      <c r="BF86" s="8"/>
-      <c r="BG86" s="8"/>
-    </row>
-    <row r="87" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT87" s="9"/>
-      <c r="AU87" s="8"/>
-      <c r="AV87" s="8"/>
-      <c r="AW87" s="8"/>
-      <c r="AX87" s="8"/>
-      <c r="AY87" s="8"/>
-      <c r="AZ87" s="8"/>
-      <c r="BA87" s="8"/>
-      <c r="BB87" s="8"/>
-      <c r="BC87" s="8"/>
-      <c r="BD87" s="8"/>
-      <c r="BE87" s="8"/>
-      <c r="BF87" s="8"/>
-      <c r="BG87" s="8"/>
-    </row>
-    <row r="88" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT88" s="10"/>
-      <c r="AU88" s="8"/>
-      <c r="AV88" s="8"/>
-      <c r="AW88" s="8"/>
-      <c r="AX88" s="8"/>
-      <c r="AY88" s="8"/>
-      <c r="AZ88" s="8"/>
-      <c r="BA88" s="8"/>
-      <c r="BB88" s="8"/>
-      <c r="BC88" s="8"/>
-      <c r="BD88" s="8"/>
-      <c r="BE88" s="8"/>
-      <c r="BF88" s="8"/>
-      <c r="BG88" s="8"/>
-    </row>
-    <row r="89" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT89" s="10"/>
-      <c r="AU89" s="8"/>
-      <c r="AV89" s="8"/>
-      <c r="AW89" s="8"/>
-      <c r="AX89" s="8"/>
-      <c r="AY89" s="8"/>
-      <c r="AZ89" s="8"/>
-      <c r="BA89" s="8"/>
-      <c r="BB89" s="8"/>
-      <c r="BC89" s="8"/>
-      <c r="BD89" s="8"/>
-      <c r="BE89" s="8"/>
-      <c r="BF89" s="8"/>
-      <c r="BG89" s="8"/>
-    </row>
-    <row r="90" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT90" s="10"/>
-      <c r="AU90" s="8"/>
-      <c r="AV90" s="8"/>
-      <c r="AW90" s="8"/>
-      <c r="AX90" s="8"/>
-      <c r="AY90" s="8"/>
-      <c r="AZ90" s="8"/>
-      <c r="BA90" s="8"/>
-      <c r="BB90" s="8"/>
-      <c r="BC90" s="8"/>
-      <c r="BD90" s="8"/>
-      <c r="BE90" s="8"/>
-      <c r="BF90" s="8"/>
-      <c r="BG90" s="8"/>
-    </row>
-    <row r="91" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT91" s="10"/>
-      <c r="AU91" s="8"/>
-      <c r="AV91" s="8"/>
-      <c r="AW91" s="8"/>
-      <c r="AX91" s="8"/>
-      <c r="AY91" s="8"/>
-      <c r="AZ91" s="8"/>
-      <c r="BA91" s="8"/>
-      <c r="BB91" s="8"/>
-      <c r="BC91" s="8"/>
-      <c r="BD91" s="8"/>
-      <c r="BE91" s="8"/>
-      <c r="BF91" s="8"/>
-      <c r="BG91" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{B361AE65-2D35-4EA1-B7C6-1E1354BC71B4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="12" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B1AE42-1584-4699-AEB7-ABDA53CC5B25}">
-  <dimension ref="B2:CE86"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55BCE3D-AFEB-45BC-8EF8-B01A4EF4F9CD}">
+  <dimension ref="B2:CE350"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="K2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="K3" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="K5" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AT6" s="2"/>
-      <c r="CA6" s="6"/>
-      <c r="CE6" s="6"/>
-    </row>
-    <row r="7" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU7" s="4"/>
-    </row>
-    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU9" s="4"/>
-    </row>
-    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU11" s="4"/>
-    </row>
-    <row r="13" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU13" s="4"/>
-    </row>
-    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="AU15" s="4"/>
-    </row>
-    <row r="28" spans="46:47" x14ac:dyDescent="0.25">
-      <c r="AT28" s="2"/>
-    </row>
-    <row r="29" spans="46:47" x14ac:dyDescent="0.25">
-      <c r="AU29" s="4"/>
-    </row>
-    <row r="33" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="2"/>
-      <c r="BD33" s="2"/>
-    </row>
-    <row r="34" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AW34" s="4"/>
-    </row>
-    <row r="37" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT37" s="2"/>
-    </row>
-    <row r="41" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT41" s="2"/>
-    </row>
-    <row r="46" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AT46" s="2"/>
-    </row>
-    <row r="47" spans="46:56" x14ac:dyDescent="0.25">
-      <c r="AU47" s="4"/>
-    </row>
-    <row r="51" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT51" s="7"/>
-      <c r="AU51" s="8"/>
-      <c r="AV51" s="11"/>
-      <c r="AW51" s="8"/>
-      <c r="AX51" s="8"/>
-      <c r="AY51" s="8"/>
-      <c r="AZ51" s="8"/>
-      <c r="BA51" s="8"/>
-      <c r="BB51" s="8"/>
-      <c r="BC51" s="8"/>
-      <c r="BD51" s="8"/>
-      <c r="BE51" s="8"/>
-      <c r="BF51" s="8"/>
-      <c r="BG51" s="8"/>
-    </row>
-    <row r="52" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT52" s="7"/>
-      <c r="AU52" s="8"/>
-      <c r="AV52" s="12"/>
-      <c r="AW52" s="8"/>
-      <c r="AX52" s="8"/>
-      <c r="AY52" s="8"/>
-      <c r="AZ52" s="8"/>
-      <c r="BA52" s="8"/>
-      <c r="BB52" s="8"/>
-      <c r="BC52" s="8"/>
-      <c r="BD52" s="8"/>
-      <c r="BE52" s="8"/>
-      <c r="BF52" s="8"/>
-      <c r="BG52" s="8"/>
-    </row>
-    <row r="53" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT53" s="7"/>
-      <c r="AU53" s="8"/>
-      <c r="AV53" s="8"/>
-      <c r="AW53" s="8"/>
-      <c r="AX53" s="8"/>
-      <c r="AY53" s="8"/>
-      <c r="AZ53" s="8"/>
-      <c r="BA53" s="8"/>
-      <c r="BB53" s="8"/>
-      <c r="BC53" s="8"/>
-      <c r="BD53" s="8"/>
-      <c r="BE53" s="8"/>
-      <c r="BF53" s="8"/>
-      <c r="BG53" s="8"/>
-    </row>
-    <row r="54" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT54" s="7"/>
-      <c r="AU54" s="8"/>
-      <c r="AV54" s="8"/>
-      <c r="AW54" s="8"/>
-      <c r="AX54" s="8"/>
-      <c r="AY54" s="8"/>
-      <c r="AZ54" s="8"/>
-      <c r="BA54" s="8"/>
-      <c r="BB54" s="8"/>
-      <c r="BC54" s="8"/>
-      <c r="BD54" s="8"/>
-      <c r="BE54" s="8"/>
-      <c r="BF54" s="8"/>
-      <c r="BG54" s="8"/>
-    </row>
-    <row r="55" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT55" s="7"/>
-      <c r="AU55" s="8"/>
-      <c r="AV55" s="8"/>
-      <c r="AW55" s="8"/>
-      <c r="AX55" s="8"/>
-      <c r="AY55" s="8"/>
-      <c r="AZ55" s="8"/>
-      <c r="BA55" s="8"/>
-      <c r="BB55" s="8"/>
-      <c r="BC55" s="8"/>
-      <c r="BD55" s="8"/>
-      <c r="BE55" s="8"/>
-      <c r="BF55" s="8"/>
-      <c r="BG55" s="8"/>
-    </row>
-    <row r="56" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT56" s="7"/>
-      <c r="AU56" s="8"/>
-      <c r="AV56" s="8"/>
-      <c r="AW56" s="8"/>
-      <c r="AX56" s="8"/>
-      <c r="AY56" s="8"/>
-      <c r="AZ56" s="8"/>
-      <c r="BA56" s="8"/>
-      <c r="BB56" s="8"/>
-      <c r="BC56" s="8"/>
-      <c r="BD56" s="8"/>
-      <c r="BE56" s="8"/>
-      <c r="BF56" s="8"/>
-      <c r="BG56" s="8"/>
-    </row>
-    <row r="57" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT57" s="7"/>
-      <c r="AU57" s="8"/>
-      <c r="AV57" s="8"/>
-      <c r="AW57" s="8"/>
-      <c r="AX57" s="8"/>
-      <c r="AY57" s="8"/>
-      <c r="AZ57" s="8"/>
-      <c r="BA57" s="8"/>
-      <c r="BB57" s="8"/>
-      <c r="BC57" s="8"/>
-      <c r="BD57" s="8"/>
-      <c r="BE57" s="8"/>
-      <c r="BF57" s="8"/>
-      <c r="BG57" s="8"/>
-    </row>
-    <row r="58" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT58" s="7"/>
-      <c r="AU58" s="8"/>
-      <c r="AV58" s="8"/>
-      <c r="AW58" s="8"/>
-      <c r="AX58" s="8"/>
-      <c r="AY58" s="8"/>
-      <c r="AZ58" s="8"/>
-      <c r="BA58" s="8"/>
-      <c r="BB58" s="8"/>
-      <c r="BC58" s="8"/>
-      <c r="BD58" s="8"/>
-      <c r="BE58" s="8"/>
-      <c r="BF58" s="8"/>
-      <c r="BG58" s="8"/>
-    </row>
-    <row r="59" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT59" s="7"/>
-      <c r="AU59" s="8"/>
-      <c r="AV59" s="8"/>
-      <c r="AW59" s="8"/>
-      <c r="AX59" s="8"/>
-      <c r="AY59" s="8"/>
-      <c r="AZ59" s="8"/>
-      <c r="BA59" s="8"/>
-      <c r="BB59" s="8"/>
-      <c r="BC59" s="8"/>
-      <c r="BD59" s="8"/>
-      <c r="BE59" s="8"/>
-      <c r="BF59" s="8"/>
-      <c r="BG59" s="8"/>
-    </row>
-    <row r="60" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT60" s="7"/>
-      <c r="AU60" s="8"/>
-      <c r="AV60" s="8"/>
-      <c r="AW60" s="8"/>
-      <c r="AX60" s="8"/>
-      <c r="AY60" s="8"/>
-      <c r="AZ60" s="8"/>
-      <c r="BA60" s="8"/>
-      <c r="BB60" s="8"/>
-      <c r="BC60" s="8"/>
-      <c r="BD60" s="8"/>
-      <c r="BE60" s="8"/>
-      <c r="BF60" s="8"/>
-      <c r="BG60" s="8"/>
-    </row>
-    <row r="61" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT61" s="7"/>
-      <c r="AU61" s="8"/>
-      <c r="AV61" s="8"/>
-      <c r="AW61" s="8"/>
-      <c r="AX61" s="8"/>
-      <c r="AY61" s="8"/>
-      <c r="AZ61" s="8"/>
-      <c r="BA61" s="8"/>
-      <c r="BB61" s="8"/>
-      <c r="BC61" s="8"/>
-      <c r="BD61" s="8"/>
-      <c r="BE61" s="8"/>
-      <c r="BF61" s="8"/>
-      <c r="BG61" s="8"/>
-    </row>
-    <row r="62" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT62" s="7"/>
-      <c r="AU62" s="8"/>
-      <c r="AV62" s="8"/>
-      <c r="AW62" s="8"/>
-      <c r="AX62" s="8"/>
-      <c r="AY62" s="8"/>
-      <c r="AZ62" s="8"/>
-      <c r="BA62" s="8"/>
-      <c r="BB62" s="8"/>
-      <c r="BC62" s="8"/>
-      <c r="BD62" s="8"/>
-      <c r="BE62" s="8"/>
-      <c r="BF62" s="8"/>
-      <c r="BG62" s="8"/>
-    </row>
-    <row r="63" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT63" s="7"/>
-      <c r="AU63" s="8"/>
-      <c r="AV63" s="8"/>
-      <c r="AW63" s="8"/>
-      <c r="AX63" s="8"/>
-      <c r="AY63" s="8"/>
-      <c r="AZ63" s="8"/>
-      <c r="BA63" s="8"/>
-      <c r="BB63" s="8"/>
-      <c r="BC63" s="8"/>
-      <c r="BD63" s="8"/>
-      <c r="BE63" s="8"/>
-      <c r="BF63" s="8"/>
-      <c r="BG63" s="8"/>
-    </row>
-    <row r="64" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT64" s="7"/>
-      <c r="AU64" s="8"/>
-      <c r="AV64" s="8"/>
-      <c r="AW64" s="8"/>
-      <c r="AX64" s="8"/>
-      <c r="AY64" s="8"/>
-      <c r="AZ64" s="8"/>
-      <c r="BA64" s="8"/>
-      <c r="BB64" s="8"/>
-      <c r="BC64" s="8"/>
-      <c r="BD64" s="8"/>
-      <c r="BE64" s="8"/>
-      <c r="BF64" s="8"/>
-      <c r="BG64" s="8"/>
-    </row>
-    <row r="65" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT65" s="9"/>
-      <c r="AU65" s="8"/>
-      <c r="AV65" s="8"/>
-      <c r="AW65" s="8"/>
-      <c r="AX65" s="8"/>
-      <c r="AY65" s="8"/>
-      <c r="AZ65" s="8"/>
-      <c r="BA65" s="8"/>
-      <c r="BB65" s="8"/>
-      <c r="BC65" s="8"/>
-      <c r="BD65" s="8"/>
-      <c r="BE65" s="8"/>
-      <c r="BF65" s="8"/>
-      <c r="BG65" s="8"/>
-    </row>
-    <row r="66" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT66" s="10"/>
-      <c r="AU66" s="8"/>
-      <c r="AV66" s="8"/>
-      <c r="AW66" s="8"/>
-      <c r="AX66" s="8"/>
-      <c r="AY66" s="8"/>
-      <c r="AZ66" s="8"/>
-      <c r="BA66" s="8"/>
-      <c r="BB66" s="8"/>
-      <c r="BC66" s="8"/>
-      <c r="BD66" s="8"/>
-      <c r="BE66" s="8"/>
-      <c r="BF66" s="8"/>
-      <c r="BG66" s="8"/>
-    </row>
-    <row r="67" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT67" s="9"/>
-      <c r="AU67" s="8"/>
-      <c r="AV67" s="8"/>
-      <c r="AW67" s="8"/>
-      <c r="AX67" s="8"/>
-      <c r="AY67" s="8"/>
-      <c r="AZ67" s="8"/>
-      <c r="BA67" s="8"/>
-      <c r="BB67" s="8"/>
-      <c r="BC67" s="8"/>
-      <c r="BD67" s="8"/>
-      <c r="BE67" s="8"/>
-      <c r="BF67" s="8"/>
-      <c r="BG67" s="8"/>
-    </row>
-    <row r="68" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT68" s="10"/>
-      <c r="AU68" s="8"/>
-      <c r="AV68" s="8"/>
-      <c r="AW68" s="8"/>
-      <c r="AX68" s="8"/>
-      <c r="AY68" s="8"/>
-      <c r="AZ68" s="8"/>
-      <c r="BA68" s="8"/>
-      <c r="BB68" s="8"/>
-      <c r="BC68" s="8"/>
-      <c r="BD68" s="8"/>
-      <c r="BE68" s="8"/>
-      <c r="BF68" s="8"/>
-      <c r="BG68" s="8"/>
-    </row>
-    <row r="69" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT69" s="10"/>
-      <c r="AU69" s="8"/>
-      <c r="AV69" s="8"/>
-      <c r="AW69" s="8"/>
-      <c r="AX69" s="8"/>
-      <c r="AY69" s="8"/>
-      <c r="AZ69" s="8"/>
-      <c r="BA69" s="8"/>
-      <c r="BB69" s="8"/>
-      <c r="BC69" s="8"/>
-      <c r="BD69" s="8"/>
-      <c r="BE69" s="8"/>
-      <c r="BF69" s="8"/>
-      <c r="BG69" s="8"/>
-    </row>
-    <row r="70" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT70" s="9"/>
-      <c r="AU70" s="8"/>
-      <c r="AV70" s="8"/>
-      <c r="AW70" s="8"/>
-      <c r="AX70" s="8"/>
-      <c r="AY70" s="8"/>
-      <c r="AZ70" s="8"/>
-      <c r="BA70" s="8"/>
-      <c r="BB70" s="8"/>
-      <c r="BC70" s="8"/>
-      <c r="BD70" s="8"/>
-      <c r="BE70" s="8"/>
-      <c r="BF70" s="8"/>
-      <c r="BG70" s="8"/>
-    </row>
-    <row r="71" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT71" s="10"/>
-      <c r="AU71" s="8"/>
-      <c r="AV71" s="8"/>
-      <c r="AW71" s="8"/>
-      <c r="AX71" s="8"/>
-      <c r="AY71" s="8"/>
-      <c r="AZ71" s="8"/>
-      <c r="BA71" s="8"/>
-      <c r="BB71" s="8"/>
-      <c r="BC71" s="8"/>
-      <c r="BD71" s="8"/>
-      <c r="BE71" s="8"/>
-      <c r="BF71" s="8"/>
-      <c r="BG71" s="8"/>
-    </row>
-    <row r="72" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT72" s="10"/>
-      <c r="AU72" s="8"/>
-      <c r="AV72" s="8"/>
-      <c r="AW72" s="8"/>
-      <c r="AX72" s="8"/>
-      <c r="AY72" s="8"/>
-      <c r="AZ72" s="8"/>
-      <c r="BA72" s="8"/>
-      <c r="BB72" s="8"/>
-      <c r="BC72" s="8"/>
-      <c r="BD72" s="8"/>
-      <c r="BE72" s="8"/>
-      <c r="BF72" s="8"/>
-      <c r="BG72" s="8"/>
-    </row>
-    <row r="73" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT73" s="10"/>
-      <c r="AU73" s="8"/>
-      <c r="AV73" s="8"/>
-      <c r="AW73" s="8"/>
-      <c r="AX73" s="8"/>
-      <c r="AY73" s="8"/>
-      <c r="AZ73" s="8"/>
-      <c r="BA73" s="8"/>
-      <c r="BB73" s="8"/>
-      <c r="BC73" s="8"/>
-      <c r="BD73" s="8"/>
-      <c r="BE73" s="8"/>
-      <c r="BF73" s="8"/>
-      <c r="BG73" s="8"/>
-    </row>
-    <row r="74" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT74" s="10"/>
-      <c r="AU74" s="8"/>
-      <c r="AV74" s="8"/>
-      <c r="AW74" s="8"/>
-      <c r="AX74" s="8"/>
-      <c r="AY74" s="8"/>
-      <c r="AZ74" s="8"/>
-      <c r="BA74" s="8"/>
-      <c r="BB74" s="8"/>
-      <c r="BC74" s="8"/>
-      <c r="BD74" s="8"/>
-      <c r="BE74" s="8"/>
-      <c r="BF74" s="8"/>
-      <c r="BG74" s="8"/>
-    </row>
-    <row r="75" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT75" s="10"/>
-      <c r="AU75" s="8"/>
-      <c r="AV75" s="8"/>
-      <c r="AW75" s="8"/>
-      <c r="AX75" s="8"/>
-      <c r="AY75" s="8"/>
-      <c r="AZ75" s="8"/>
-      <c r="BA75" s="8"/>
-      <c r="BB75" s="8"/>
-      <c r="BC75" s="8"/>
-      <c r="BD75" s="8"/>
-      <c r="BE75" s="8"/>
-      <c r="BF75" s="8"/>
-      <c r="BG75" s="8"/>
-    </row>
-    <row r="76" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT76" s="9"/>
-      <c r="AU76" s="8"/>
-      <c r="AV76" s="8"/>
-      <c r="AW76" s="8"/>
-      <c r="AX76" s="8"/>
-      <c r="AY76" s="8"/>
-      <c r="AZ76" s="8"/>
-      <c r="BA76" s="8"/>
-      <c r="BB76" s="8"/>
-      <c r="BC76" s="8"/>
-      <c r="BD76" s="8"/>
-      <c r="BE76" s="8"/>
-      <c r="BF76" s="8"/>
-      <c r="BG76" s="8"/>
-    </row>
-    <row r="77" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT77" s="9"/>
-      <c r="AU77" s="8"/>
-      <c r="AV77" s="8"/>
-      <c r="AW77" s="8"/>
-      <c r="AX77" s="8"/>
-      <c r="AY77" s="8"/>
-      <c r="AZ77" s="8"/>
-      <c r="BA77" s="8"/>
-      <c r="BB77" s="8"/>
-      <c r="BC77" s="8"/>
-      <c r="BD77" s="8"/>
-      <c r="BE77" s="8"/>
-      <c r="BF77" s="8"/>
-      <c r="BG77" s="8"/>
-    </row>
-    <row r="78" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT78" s="10"/>
-      <c r="AU78" s="8"/>
-      <c r="AV78" s="8"/>
-      <c r="AW78" s="8"/>
-      <c r="AX78" s="8"/>
-      <c r="AY78" s="8"/>
-      <c r="AZ78" s="8"/>
-      <c r="BA78" s="8"/>
-      <c r="BB78" s="8"/>
-      <c r="BC78" s="8"/>
-      <c r="BD78" s="8"/>
-      <c r="BE78" s="8"/>
-      <c r="BF78" s="8"/>
-      <c r="BG78" s="8"/>
-    </row>
-    <row r="79" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT79" s="10"/>
-      <c r="AU79" s="8"/>
-      <c r="AV79" s="8"/>
-      <c r="AW79" s="8"/>
-      <c r="AX79" s="8"/>
-      <c r="AY79" s="8"/>
-      <c r="AZ79" s="8"/>
-      <c r="BA79" s="8"/>
-      <c r="BB79" s="8"/>
-      <c r="BC79" s="8"/>
-      <c r="BD79" s="8"/>
-      <c r="BE79" s="8"/>
-      <c r="BF79" s="8"/>
-      <c r="BG79" s="8"/>
-    </row>
-    <row r="80" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT80" s="9"/>
-      <c r="AU80" s="8"/>
-      <c r="AV80" s="8"/>
-      <c r="AW80" s="8"/>
-      <c r="AX80" s="8"/>
-      <c r="AY80" s="8"/>
-      <c r="AZ80" s="8"/>
-      <c r="BA80" s="8"/>
-      <c r="BB80" s="8"/>
-      <c r="BC80" s="8"/>
-      <c r="BD80" s="8"/>
-      <c r="BE80" s="8"/>
-      <c r="BF80" s="8"/>
-      <c r="BG80" s="8"/>
-    </row>
-    <row r="81" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT81" s="10"/>
-      <c r="AU81" s="8"/>
-      <c r="AV81" s="8"/>
-      <c r="AW81" s="8"/>
-      <c r="AX81" s="8"/>
-      <c r="AY81" s="8"/>
-      <c r="AZ81" s="8"/>
-      <c r="BA81" s="8"/>
-      <c r="BB81" s="8"/>
-      <c r="BC81" s="8"/>
-      <c r="BD81" s="8"/>
-      <c r="BE81" s="8"/>
-      <c r="BF81" s="8"/>
-      <c r="BG81" s="8"/>
-    </row>
-    <row r="82" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT82" s="9"/>
-      <c r="AU82" s="8"/>
-      <c r="AV82" s="8"/>
-      <c r="AW82" s="8"/>
-      <c r="AX82" s="8"/>
-      <c r="AY82" s="8"/>
-      <c r="AZ82" s="8"/>
-      <c r="BA82" s="8"/>
-      <c r="BB82" s="8"/>
-      <c r="BC82" s="8"/>
-      <c r="BD82" s="8"/>
-      <c r="BE82" s="8"/>
-      <c r="BF82" s="8"/>
-      <c r="BG82" s="8"/>
-    </row>
-    <row r="83" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT83" s="10"/>
-      <c r="AU83" s="8"/>
-      <c r="AV83" s="8"/>
-      <c r="AW83" s="8"/>
-      <c r="AX83" s="8"/>
-      <c r="AY83" s="8"/>
-      <c r="AZ83" s="8"/>
-      <c r="BA83" s="8"/>
-      <c r="BB83" s="8"/>
-      <c r="BC83" s="8"/>
-      <c r="BD83" s="8"/>
-      <c r="BE83" s="8"/>
-      <c r="BF83" s="8"/>
-      <c r="BG83" s="8"/>
-    </row>
-    <row r="84" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT84" s="10"/>
-      <c r="AU84" s="8"/>
-      <c r="AV84" s="8"/>
-      <c r="AW84" s="8"/>
-      <c r="AX84" s="8"/>
-      <c r="AY84" s="8"/>
-      <c r="AZ84" s="8"/>
-      <c r="BA84" s="8"/>
-      <c r="BB84" s="8"/>
-      <c r="BC84" s="8"/>
-      <c r="BD84" s="8"/>
-      <c r="BE84" s="8"/>
-      <c r="BF84" s="8"/>
-      <c r="BG84" s="8"/>
-    </row>
-    <row r="85" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT85" s="10"/>
-      <c r="AU85" s="8"/>
-      <c r="AV85" s="8"/>
-      <c r="AW85" s="8"/>
-      <c r="AX85" s="8"/>
-      <c r="AY85" s="8"/>
-      <c r="AZ85" s="8"/>
-      <c r="BA85" s="8"/>
-      <c r="BB85" s="8"/>
-      <c r="BC85" s="8"/>
-      <c r="BD85" s="8"/>
-      <c r="BE85" s="8"/>
-      <c r="BF85" s="8"/>
-      <c r="BG85" s="8"/>
-    </row>
-    <row r="86" spans="46:59" x14ac:dyDescent="0.25">
-      <c r="AT86" s="10"/>
-      <c r="AU86" s="8"/>
-      <c r="AV86" s="8"/>
-      <c r="AW86" s="8"/>
-      <c r="AX86" s="8"/>
-      <c r="AY86" s="8"/>
-      <c r="AZ86" s="8"/>
-      <c r="BA86" s="8"/>
-      <c r="BB86" s="8"/>
-      <c r="BC86" s="8"/>
-      <c r="BD86" s="8"/>
-      <c r="BE86" s="8"/>
-      <c r="BF86" s="8"/>
-      <c r="BG86" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55BCE3D-AFEB-45BC-8EF8-B01A4EF4F9CD}">
-  <dimension ref="C2:BD345"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6221,432 +6193,465 @@
     <col min="28" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:47" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="CA3" s="6"/>
+      <c r="CE3" s="6"/>
+    </row>
+    <row r="4" spans="2:83" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT8" s="2"/>
+      <c r="CA8" s="6"/>
+      <c r="CE8" s="6"/>
+    </row>
+    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU15" s="4"/>
+    </row>
+    <row r="16" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU17" s="4"/>
+    </row>
+    <row r="18" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU18" s="4"/>
+    </row>
+    <row r="19" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
+    <row r="20" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="AU6" s="4"/>
-    </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
+    <row r="21" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
+    <row r="22" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU10" s="4"/>
-    </row>
-    <row r="11" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="G12" s="1" t="s">
+    <row r="25" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT30" s="2"/>
+    </row>
+    <row r="31" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AU12" s="4"/>
-    </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU13" s="4"/>
-    </row>
-    <row r="14" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
+      <c r="K31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU31" s="4"/>
+    </row>
+    <row r="32" spans="6:47" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="K33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="2"/>
+      <c r="BD35" s="2"/>
+    </row>
+    <row r="36" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW36" s="4"/>
+    </row>
+    <row r="37" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW37" s="4"/>
+    </row>
+    <row r="38" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW38" s="4"/>
+    </row>
+    <row r="39" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW39" s="4"/>
+    </row>
+    <row r="40" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT44" s="2"/>
+    </row>
+    <row r="45" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT25" s="2"/>
-    </row>
-    <row r="26" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU26" s="4"/>
-    </row>
-    <row r="27" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="G28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="1" t="s">
+    <row r="48" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="2"/>
-      <c r="BD30" s="2"/>
-    </row>
-    <row r="31" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW31" s="4"/>
-    </row>
-    <row r="32" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW32" s="4"/>
-    </row>
-    <row r="33" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW33" s="4"/>
-    </row>
-    <row r="34" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW34" s="4"/>
-    </row>
-    <row r="35" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="F35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="F37" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="s">
+    <row r="49" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="AT49" s="2"/>
+    </row>
+    <row r="50" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="AU50" s="4"/>
+    </row>
+    <row r="52" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O39" s="1" t="s">
+    </row>
+    <row r="53" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="3:47" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="57" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+      <c r="F57" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AT39" s="2"/>
-    </row>
-    <row r="40" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT44" s="2"/>
-    </row>
-    <row r="45" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AU45" s="4"/>
-    </row>
-    <row r="47" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="F47" s="1" t="s">
+      <c r="AA58" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="F48" s="1" t="s">
+    <row r="62" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>100</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AA48" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="F49" s="1" t="s">
+    </row>
+    <row r="64" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>200</v>
+      </c>
+      <c r="U64" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="3:41" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C50" s="3"/>
-    </row>
-    <row r="52" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="E52" s="2"/>
-      <c r="F52" s="1" t="s">
+      <c r="AC64" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="53" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="F53" s="1" t="s">
+      <c r="AO64" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>300</v>
+      </c>
+      <c r="U65" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA53" s="4" t="s">
+      <c r="AC65" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="57" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
+      <c r="AO65" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <v>400</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="F58" s="1">
+      <c r="AC66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>500</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="F59" s="1">
-        <v>200</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC59" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO59" s="1" t="s">
+      <c r="AH67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="U68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC68" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="F60" s="1">
-        <v>300</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO60" s="1" t="s">
+      <c r="AH68" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="F61" s="1">
-        <v>400</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO61" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="F62" s="1">
-        <v>500</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC62" s="1" t="s">
+    <row r="69" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+      <c r="U69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AH62" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="U63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH63" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-      <c r="U64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC64" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH64" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="2"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="2"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112" s="2"/>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E153" s="2"/>
+    </row>
+    <row r="70" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="2"/>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F154" s="2"/>
-    </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F187" s="2"/>
-    </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F237" s="2"/>
-    </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E283" s="2"/>
-    </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F289" s="2"/>
-    </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F310" s="2"/>
-    </row>
-    <row r="339" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F340" s="2"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F242" s="2"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="2"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F294" s="2"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F315" s="2"/>
+    </row>
+    <row r="344" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E344" s="2"/>
     </row>
     <row r="345" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F345" s="2"/>
+    </row>
+    <row r="350" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F350" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="55" max="94" man="1"/>
+    <brk id="60" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D673881F-1E6F-4783-AF16-EFBB9E638D2A}">
   <dimension ref="C2:BD346"/>
   <sheetViews>
@@ -6686,23 +6691,23 @@
     </row>
     <row r="19" spans="7:56" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="7:56" x14ac:dyDescent="0.25">
       <c r="Q20" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="7:56" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="7:56" x14ac:dyDescent="0.25">
@@ -6829,12 +6834,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0272EE-E609-473F-BD2E-4C243E00DE8C}">
-  <dimension ref="C2:BD346"/>
+  <dimension ref="B2:BD346"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF38" sqref="AF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6846,25 +6851,36 @@
     <col min="28" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:47" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:47" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="6" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AU6" s="4"/>
     </row>
-    <row r="8" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
     </row>
-    <row r="10" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AU10" s="4"/>
     </row>
-    <row r="12" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AU12" s="4"/>
     </row>
-    <row r="13" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AU13" s="4"/>
     </row>
     <row r="26" spans="46:56" x14ac:dyDescent="0.25">
@@ -6881,22 +6897,28 @@
     <row r="32" spans="46:56" x14ac:dyDescent="0.25">
       <c r="AW32" s="4"/>
     </row>
-    <row r="33" spans="46:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:49" x14ac:dyDescent="0.25">
       <c r="AW33" s="4"/>
     </row>
-    <row r="34" spans="46:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:49" x14ac:dyDescent="0.25">
+      <c r="F34" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="AW34" s="4"/>
     </row>
-    <row r="35" spans="46:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:49" x14ac:dyDescent="0.25">
+      <c r="F35" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="AW35" s="4"/>
     </row>
-    <row r="40" spans="46:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:49" x14ac:dyDescent="0.25">
       <c r="AT40" s="2"/>
     </row>
-    <row r="45" spans="46:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:49" x14ac:dyDescent="0.25">
       <c r="AT45" s="2"/>
     </row>
-    <row r="46" spans="46:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:49" x14ac:dyDescent="0.25">
       <c r="AU46" s="4"/>
     </row>
     <row r="49" spans="3:29" x14ac:dyDescent="0.25">
@@ -6982,15 +7004,20 @@
       <c r="F346" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F34" r:id="rId1" display="https://jwt.ms/" xr:uid="{B86AADC6-5155-4C0A-BCF6-419CDF0C1B85}"/>
+    <hyperlink ref="F35" r:id="rId2" display="https://jwt.io/" xr:uid="{BA39C3F6-5E16-4B0D-953C-CF606440C1CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="12" orientation="portrait" r:id="rId3"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="56" max="94" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C825C28-0184-478E-8348-909C33FD9311}">
   <dimension ref="C2:H297"/>
   <sheetViews>
@@ -7005,65 +7032,65 @@
   <sheetData>
     <row r="2" spans="3:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H37" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F40" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E101" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
@@ -7080,27 +7107,27 @@
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F106" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F107" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E185" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.25">
@@ -7114,52 +7141,52 @@
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F189" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F190" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F241" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F242" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F262" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="263" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F263" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="291" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E291" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F292" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="297" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F297" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
